--- a/data/ציונים אנונימי.xlsx
+++ b/data/ציונים אנונימי.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\owner\Dropbox (BIO MEDICAL ROBOTICS)\Engineering projects\כנס פרוייקטים מחלקתי\2022\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82E45952-0C3C-4C1A-BBC0-D8AAB256E2A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE42737B-A716-4D51-A3E8-D73FA9BE2BEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{7E34070B-E9A1-44CF-8B56-762B3E1C3585}"/>
+    <workbookView xWindow="-18540" yWindow="2895" windowWidth="17250" windowHeight="8970" xr2:uid="{7E34070B-E9A1-44CF-8B56-762B3E1C3585}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="861" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="825" uniqueCount="25">
   <si>
     <t>שם סטודנט</t>
   </si>
@@ -50,9 +50,6 @@
   </si>
   <si>
     <t>ממוצע סטודנט</t>
-  </si>
-  <si>
-    <t>אלון למפרט</t>
   </si>
   <si>
     <t>315356238 ו205867906</t>
@@ -603,11 +600,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0479A283-F3EF-40C8-8269-76A5DCD01B70}">
-  <dimension ref="A1:C740"/>
+  <dimension ref="A1:C732"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A715" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G728" sqref="G728"/>
+      <pane ySplit="1" topLeftCell="A463" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B487" sqref="B487"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -632,7 +629,7 @@
         <v>318476850</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C2" s="4">
         <v>12</v>
@@ -643,7 +640,7 @@
         <v>318476850</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C3" s="7">
         <v>16</v>
@@ -654,7 +651,7 @@
         <v>318476850</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C4" s="7">
         <v>14</v>
@@ -665,7 +662,7 @@
         <v>318476850</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C5" s="7">
         <v>14</v>
@@ -676,7 +673,7 @@
         <v>318476850</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C6" s="7">
         <v>12</v>
@@ -687,7 +684,7 @@
         <v>318476850</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C7" s="7">
         <v>12</v>
@@ -698,7 +695,7 @@
         <v>318476850</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C8" s="7">
         <v>12</v>
@@ -719,7 +716,7 @@
         <v>318476850</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C10" s="4">
         <v>12</v>
@@ -730,7 +727,7 @@
         <v>318476850</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C11" s="7">
         <v>14</v>
@@ -741,7 +738,7 @@
         <v>318476850</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C12" s="7">
         <v>14</v>
@@ -752,7 +749,7 @@
         <v>318476850</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C13" s="7">
         <v>11</v>
@@ -763,7 +760,7 @@
         <v>318476850</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C14" s="7">
         <v>12</v>
@@ -774,7 +771,7 @@
         <v>318476850</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C15" s="7">
         <v>11</v>
@@ -785,7 +782,7 @@
         <v>318476850</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C16" s="7">
         <v>11</v>
@@ -806,7 +803,7 @@
         <v>318476850</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C18" s="4">
         <v>12</v>
@@ -817,7 +814,7 @@
         <v>318476850</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C19" s="7">
         <v>16</v>
@@ -828,7 +825,7 @@
         <v>318476850</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C20" s="7">
         <v>14</v>
@@ -839,7 +836,7 @@
         <v>318476850</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C21" s="7">
         <v>14</v>
@@ -850,7 +847,7 @@
         <v>318476850</v>
       </c>
       <c r="B22" s="11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C22" s="7">
         <v>9</v>
@@ -861,7 +858,7 @@
         <v>318476850</v>
       </c>
       <c r="B23" s="11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C23" s="7">
         <v>12</v>
@@ -872,7 +869,7 @@
         <v>318476850</v>
       </c>
       <c r="B24" s="11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C24" s="7">
         <v>12</v>
@@ -893,7 +890,7 @@
         <v>318476850</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C26" s="4">
         <v>14</v>
@@ -904,7 +901,7 @@
         <v>318476850</v>
       </c>
       <c r="B27" s="11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C27" s="7">
         <v>14</v>
@@ -915,7 +912,7 @@
         <v>318476850</v>
       </c>
       <c r="B28" s="11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C28" s="7">
         <v>16</v>
@@ -926,7 +923,7 @@
         <v>318476850</v>
       </c>
       <c r="B29" s="11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C29" s="7">
         <v>14</v>
@@ -937,7 +934,7 @@
         <v>318476850</v>
       </c>
       <c r="B30" s="11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C30" s="7">
         <v>14</v>
@@ -948,7 +945,7 @@
         <v>318476850</v>
       </c>
       <c r="B31" s="11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C31" s="7">
         <v>12</v>
@@ -959,7 +956,7 @@
         <v>318476850</v>
       </c>
       <c r="B32" s="11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C32" s="7">
         <v>12</v>
@@ -991,7 +988,7 @@
         <v>205868607</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C36" s="4">
         <v>9</v>
@@ -1002,7 +999,7 @@
         <v>205868607</v>
       </c>
       <c r="B37" s="11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C37" s="7">
         <v>14</v>
@@ -1013,7 +1010,7 @@
         <v>205868607</v>
       </c>
       <c r="B38" s="11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C38" s="7">
         <v>14</v>
@@ -1024,7 +1021,7 @@
         <v>205868607</v>
       </c>
       <c r="B39" s="11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C39" s="7">
         <v>14</v>
@@ -1035,7 +1032,7 @@
         <v>205868607</v>
       </c>
       <c r="B40" s="11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C40" s="7">
         <v>12</v>
@@ -1046,7 +1043,7 @@
         <v>205868607</v>
       </c>
       <c r="B41" s="11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C41" s="7">
         <v>11</v>
@@ -1057,7 +1054,7 @@
         <v>205868607</v>
       </c>
       <c r="B42" s="11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C42" s="7">
         <v>11</v>
@@ -1078,7 +1075,7 @@
         <v>205868607</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C44" s="4">
         <v>14</v>
@@ -1089,7 +1086,7 @@
         <v>205868607</v>
       </c>
       <c r="B45" s="11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C45" s="7">
         <v>16</v>
@@ -1100,7 +1097,7 @@
         <v>205868607</v>
       </c>
       <c r="B46" s="11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C46" s="7">
         <v>11</v>
@@ -1111,7 +1108,7 @@
         <v>205868607</v>
       </c>
       <c r="B47" s="11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C47" s="7">
         <v>11</v>
@@ -1122,7 +1119,7 @@
         <v>205868607</v>
       </c>
       <c r="B48" s="11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C48" s="7">
         <v>14</v>
@@ -1133,7 +1130,7 @@
         <v>205868607</v>
       </c>
       <c r="B49" s="11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C49" s="7">
         <v>11</v>
@@ -1144,7 +1141,7 @@
         <v>205868607</v>
       </c>
       <c r="B50" s="11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C50" s="7">
         <v>11</v>
@@ -1165,7 +1162,7 @@
         <v>205868607</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C52" s="4">
         <v>12</v>
@@ -1176,7 +1173,7 @@
         <v>205868607</v>
       </c>
       <c r="B53" s="11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C53" s="7">
         <v>14</v>
@@ -1187,7 +1184,7 @@
         <v>205868607</v>
       </c>
       <c r="B54" s="11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C54" s="7">
         <v>11</v>
@@ -1198,7 +1195,7 @@
         <v>205868607</v>
       </c>
       <c r="B55" s="11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C55" s="7">
         <v>14</v>
@@ -1209,7 +1206,7 @@
         <v>205868607</v>
       </c>
       <c r="B56" s="11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C56" s="7">
         <v>9</v>
@@ -1220,7 +1217,7 @@
         <v>205868607</v>
       </c>
       <c r="B57" s="11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C57" s="7">
         <v>12</v>
@@ -1231,7 +1228,7 @@
         <v>205868607</v>
       </c>
       <c r="B58" s="11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C58" s="7">
         <v>12</v>
@@ -1252,7 +1249,7 @@
         <v>205868607</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C60" s="4">
         <v>14</v>
@@ -1263,7 +1260,7 @@
         <v>205868607</v>
       </c>
       <c r="B61" s="11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C61" s="7">
         <v>14</v>
@@ -1274,7 +1271,7 @@
         <v>205868607</v>
       </c>
       <c r="B62" s="11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C62" s="7">
         <v>16</v>
@@ -1285,7 +1282,7 @@
         <v>205868607</v>
       </c>
       <c r="B63" s="11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C63" s="7">
         <v>16</v>
@@ -1296,7 +1293,7 @@
         <v>205868607</v>
       </c>
       <c r="B64" s="11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C64" s="7">
         <v>12</v>
@@ -1307,7 +1304,7 @@
         <v>205868607</v>
       </c>
       <c r="B65" s="11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C65" s="7">
         <v>12</v>
@@ -1318,7 +1315,7 @@
         <v>205868607</v>
       </c>
       <c r="B66" s="11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C66" s="7">
         <v>11</v>
@@ -1346,77 +1343,77 @@
     </row>
     <row r="69" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="70" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A70" s="2" t="s">
-        <v>5</v>
+      <c r="A70" s="2">
+        <v>308159060</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C70" s="4">
         <v>9</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A71" s="5" t="s">
-        <v>5</v>
+      <c r="A71" s="5">
+        <v>308159060</v>
       </c>
       <c r="B71" s="11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C71" s="7">
         <v>16</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A72" s="5" t="s">
-        <v>5</v>
+      <c r="A72" s="5">
+        <v>308159060</v>
       </c>
       <c r="B72" s="11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C72" s="7">
         <v>14</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A73" s="5" t="s">
-        <v>5</v>
+      <c r="A73" s="5">
+        <v>308159060</v>
       </c>
       <c r="B73" s="11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C73" s="7">
         <v>14</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A74" s="5" t="s">
-        <v>5</v>
+      <c r="A74" s="5">
+        <v>308159060</v>
       </c>
       <c r="B74" s="11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C74" s="7">
         <v>12</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A75" s="5" t="s">
-        <v>5</v>
+      <c r="A75" s="5">
+        <v>308159060</v>
       </c>
       <c r="B75" s="11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C75" s="7">
         <v>8</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A76" s="5" t="s">
-        <v>5</v>
+      <c r="A76" s="5">
+        <v>308159060</v>
       </c>
       <c r="B76" s="11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C76" s="7">
         <v>11</v>
@@ -1433,77 +1430,77 @@
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A78" s="2" t="s">
-        <v>5</v>
+      <c r="A78" s="2">
+        <v>308159060</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C78" s="4">
         <v>12</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A79" s="5" t="s">
-        <v>5</v>
+      <c r="A79" s="5">
+        <v>308159060</v>
       </c>
       <c r="B79" s="11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C79" s="7">
         <v>14</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A80" s="5" t="s">
-        <v>5</v>
+      <c r="A80" s="5">
+        <v>308159060</v>
       </c>
       <c r="B80" s="11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C80" s="7">
         <v>11</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A81" s="5" t="s">
-        <v>5</v>
+      <c r="A81" s="5">
+        <v>308159060</v>
       </c>
       <c r="B81" s="11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C81" s="7">
         <v>11</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A82" s="5" t="s">
-        <v>5</v>
+      <c r="A82" s="5">
+        <v>308159060</v>
       </c>
       <c r="B82" s="11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C82" s="7">
         <v>9</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A83" s="5" t="s">
-        <v>5</v>
+      <c r="A83" s="5">
+        <v>308159060</v>
       </c>
       <c r="B83" s="11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C83" s="7">
         <v>4</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A84" s="5" t="s">
-        <v>5</v>
+      <c r="A84" s="5">
+        <v>308159060</v>
       </c>
       <c r="B84" s="11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C84" s="7">
         <v>8</v>
@@ -1520,77 +1517,77 @@
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A86" s="2" t="s">
-        <v>5</v>
+      <c r="A86" s="2">
+        <v>308159060</v>
       </c>
       <c r="B86" s="11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C86" s="4">
         <v>12</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A87" s="5" t="s">
-        <v>5</v>
+      <c r="A87" s="5">
+        <v>308159060</v>
       </c>
       <c r="B87" s="11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C87" s="7">
         <v>14</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A88" s="5" t="s">
-        <v>5</v>
+      <c r="A88" s="5">
+        <v>308159060</v>
       </c>
       <c r="B88" s="11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C88" s="7">
         <v>11</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A89" s="5" t="s">
-        <v>5</v>
+      <c r="A89" s="5">
+        <v>308159060</v>
       </c>
       <c r="B89" s="11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C89" s="7">
         <v>11</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A90" s="5" t="s">
-        <v>5</v>
+      <c r="A90" s="5">
+        <v>308159060</v>
       </c>
       <c r="B90" s="11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C90" s="7">
         <v>9</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A91" s="5" t="s">
-        <v>5</v>
+      <c r="A91" s="5">
+        <v>308159060</v>
       </c>
       <c r="B91" s="11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C91" s="7">
         <v>11</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A92" s="5" t="s">
-        <v>5</v>
+      <c r="A92" s="5">
+        <v>308159060</v>
       </c>
       <c r="B92" s="11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C92" s="7">
         <v>12</v>
@@ -1607,77 +1604,77 @@
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A94" s="2" t="s">
-        <v>5</v>
+      <c r="A94" s="2">
+        <v>308159060</v>
       </c>
       <c r="B94" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C94" s="4">
         <v>14</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A95" s="5" t="s">
-        <v>5</v>
+      <c r="A95" s="5">
+        <v>308159060</v>
       </c>
       <c r="B95" s="11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C95" s="7">
         <v>14</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A96" s="5" t="s">
-        <v>5</v>
+      <c r="A96" s="5">
+        <v>308159060</v>
       </c>
       <c r="B96" s="11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C96" s="7">
         <v>14</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A97" s="5" t="s">
-        <v>5</v>
+      <c r="A97" s="5">
+        <v>308159060</v>
       </c>
       <c r="B97" s="11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C97" s="7">
         <v>14</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A98" s="5" t="s">
-        <v>5</v>
+      <c r="A98" s="5">
+        <v>308159060</v>
       </c>
       <c r="B98" s="11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C98" s="7">
         <v>9</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A99" s="5" t="s">
-        <v>5</v>
+      <c r="A99" s="5">
+        <v>308159060</v>
       </c>
       <c r="B99" s="11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C99" s="7">
         <v>11</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A100" s="5" t="s">
-        <v>5</v>
+      <c r="A100" s="5">
+        <v>308159060</v>
       </c>
       <c r="B100" s="11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C100" s="7">
         <v>8</v>
@@ -1709,7 +1706,7 @@
         <v>315876821</v>
       </c>
       <c r="B104" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C104" s="4">
         <v>12</v>
@@ -1720,7 +1717,7 @@
         <v>315876821</v>
       </c>
       <c r="B105" s="11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C105" s="7">
         <v>11</v>
@@ -1731,7 +1728,7 @@
         <v>315876821</v>
       </c>
       <c r="B106" s="11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C106" s="7">
         <v>14</v>
@@ -1742,7 +1739,7 @@
         <v>315876821</v>
       </c>
       <c r="B107" s="11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C107" s="7">
         <v>11</v>
@@ -1753,7 +1750,7 @@
         <v>315876821</v>
       </c>
       <c r="B108" s="11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C108" s="7">
         <v>9</v>
@@ -1764,7 +1761,7 @@
         <v>315876821</v>
       </c>
       <c r="B109" s="11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C109" s="7">
         <v>11</v>
@@ -1775,7 +1772,7 @@
         <v>315876821</v>
       </c>
       <c r="B110" s="11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C110" s="7">
         <v>11</v>
@@ -1796,7 +1793,7 @@
         <v>315876821</v>
       </c>
       <c r="B112" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C112" s="4">
         <v>12</v>
@@ -1807,7 +1804,7 @@
         <v>315876821</v>
       </c>
       <c r="B113" s="11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C113" s="7">
         <v>14</v>
@@ -1818,7 +1815,7 @@
         <v>315876821</v>
       </c>
       <c r="B114" s="11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C114" s="7">
         <v>14</v>
@@ -1829,7 +1826,7 @@
         <v>315876821</v>
       </c>
       <c r="B115" s="11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C115" s="7">
         <v>14</v>
@@ -1840,7 +1837,7 @@
         <v>315876821</v>
       </c>
       <c r="B116" s="11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C116" s="7">
         <v>12</v>
@@ -1851,7 +1848,7 @@
         <v>315876821</v>
       </c>
       <c r="B117" s="11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C117" s="7">
         <v>11</v>
@@ -1862,7 +1859,7 @@
         <v>315876821</v>
       </c>
       <c r="B118" s="11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C118" s="7">
         <v>11</v>
@@ -1883,7 +1880,7 @@
         <v>315876821</v>
       </c>
       <c r="B120" s="11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C120" s="4">
         <v>12</v>
@@ -1894,7 +1891,7 @@
         <v>315876821</v>
       </c>
       <c r="B121" s="11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C121" s="7">
         <v>11</v>
@@ -1905,7 +1902,7 @@
         <v>315876821</v>
       </c>
       <c r="B122" s="11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C122" s="7">
         <v>14</v>
@@ -1916,7 +1913,7 @@
         <v>315876821</v>
       </c>
       <c r="B123" s="11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C123" s="7">
         <v>11</v>
@@ -1927,7 +1924,7 @@
         <v>315876821</v>
       </c>
       <c r="B124" s="11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C124" s="7">
         <v>9</v>
@@ -1938,7 +1935,7 @@
         <v>315876821</v>
       </c>
       <c r="B125" s="11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C125" s="7">
         <v>12</v>
@@ -1949,7 +1946,7 @@
         <v>315876821</v>
       </c>
       <c r="B126" s="11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C126" s="7">
         <v>11</v>
@@ -1970,7 +1967,7 @@
         <v>315876821</v>
       </c>
       <c r="B128" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C128" s="4">
         <v>14</v>
@@ -1981,7 +1978,7 @@
         <v>315876821</v>
       </c>
       <c r="B129" s="11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C129" s="7">
         <v>14</v>
@@ -1992,7 +1989,7 @@
         <v>315876821</v>
       </c>
       <c r="B130" s="11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C130" s="7">
         <v>16</v>
@@ -2003,7 +2000,7 @@
         <v>315876821</v>
       </c>
       <c r="B131" s="11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C131" s="7">
         <v>16</v>
@@ -2014,7 +2011,7 @@
         <v>315876821</v>
       </c>
       <c r="B132" s="11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C132" s="7">
         <v>9</v>
@@ -2025,7 +2022,7 @@
         <v>315876821</v>
       </c>
       <c r="B133" s="11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C133" s="7">
         <v>12</v>
@@ -2036,7 +2033,7 @@
         <v>315876821</v>
       </c>
       <c r="B134" s="11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C134" s="7">
         <v>12</v>
@@ -2068,7 +2065,7 @@
         <v>208496117</v>
       </c>
       <c r="B138" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C138" s="4">
         <v>12</v>
@@ -2079,7 +2076,7 @@
         <v>208496117</v>
       </c>
       <c r="B139" s="11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C139" s="7">
         <v>14</v>
@@ -2090,7 +2087,7 @@
         <v>208496117</v>
       </c>
       <c r="B140" s="11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C140" s="7">
         <v>14</v>
@@ -2101,7 +2098,7 @@
         <v>208496117</v>
       </c>
       <c r="B141" s="11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C141" s="7">
         <v>14</v>
@@ -2112,7 +2109,7 @@
         <v>208496117</v>
       </c>
       <c r="B142" s="11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C142" s="7">
         <v>12</v>
@@ -2123,7 +2120,7 @@
         <v>208496117</v>
       </c>
       <c r="B143" s="11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C143" s="7">
         <v>11</v>
@@ -2134,7 +2131,7 @@
         <v>208496117</v>
       </c>
       <c r="B144" s="11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C144" s="7">
         <v>11</v>
@@ -2155,7 +2152,7 @@
         <v>208496117</v>
       </c>
       <c r="B146" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C146" s="4">
         <v>12</v>
@@ -2166,7 +2163,7 @@
         <v>208496117</v>
       </c>
       <c r="B147" s="11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C147" s="7">
         <v>14</v>
@@ -2177,7 +2174,7 @@
         <v>208496117</v>
       </c>
       <c r="B148" s="11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C148" s="7">
         <v>14</v>
@@ -2188,7 +2185,7 @@
         <v>208496117</v>
       </c>
       <c r="B149" s="11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C149" s="7">
         <v>14</v>
@@ -2199,7 +2196,7 @@
         <v>208496117</v>
       </c>
       <c r="B150" s="11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C150" s="7">
         <v>9</v>
@@ -2210,7 +2207,7 @@
         <v>208496117</v>
       </c>
       <c r="B151" s="11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C151" s="7">
         <v>11</v>
@@ -2221,7 +2218,7 @@
         <v>208496117</v>
       </c>
       <c r="B152" s="11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C152" s="7">
         <v>8</v>
@@ -2242,7 +2239,7 @@
         <v>208496117</v>
       </c>
       <c r="B154" s="11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C154" s="4">
         <v>14</v>
@@ -2253,7 +2250,7 @@
         <v>208496117</v>
       </c>
       <c r="B155" s="11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C155" s="7">
         <v>14</v>
@@ -2264,7 +2261,7 @@
         <v>208496117</v>
       </c>
       <c r="B156" s="11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C156" s="7">
         <v>14</v>
@@ -2275,7 +2272,7 @@
         <v>208496117</v>
       </c>
       <c r="B157" s="11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C157" s="7">
         <v>11</v>
@@ -2286,7 +2283,7 @@
         <v>208496117</v>
       </c>
       <c r="B158" s="11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C158" s="7">
         <v>9</v>
@@ -2297,7 +2294,7 @@
         <v>208496117</v>
       </c>
       <c r="B159" s="11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C159" s="7">
         <v>11</v>
@@ -2308,7 +2305,7 @@
         <v>208496117</v>
       </c>
       <c r="B160" s="11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C160" s="7">
         <v>11</v>
@@ -2329,7 +2326,7 @@
         <v>208496117</v>
       </c>
       <c r="B162" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C162" s="4">
         <v>14</v>
@@ -2340,7 +2337,7 @@
         <v>208496117</v>
       </c>
       <c r="B163" s="11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C163" s="7">
         <v>14</v>
@@ -2351,7 +2348,7 @@
         <v>208496117</v>
       </c>
       <c r="B164" s="11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C164" s="7">
         <v>14</v>
@@ -2362,7 +2359,7 @@
         <v>208496117</v>
       </c>
       <c r="B165" s="11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C165" s="7">
         <v>14</v>
@@ -2373,7 +2370,7 @@
         <v>208496117</v>
       </c>
       <c r="B166" s="11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C166" s="7">
         <v>12</v>
@@ -2384,7 +2381,7 @@
         <v>208496117</v>
       </c>
       <c r="B167" s="11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C167" s="7">
         <v>11</v>
@@ -2395,7 +2392,7 @@
         <v>208496117</v>
       </c>
       <c r="B168" s="11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C168" s="7">
         <v>11</v>
@@ -2427,7 +2424,7 @@
         <v>205883853</v>
       </c>
       <c r="B172" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C172" s="4">
         <v>12</v>
@@ -2438,7 +2435,7 @@
         <v>205883853</v>
       </c>
       <c r="B173" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C173" s="7">
         <v>14</v>
@@ -2449,7 +2446,7 @@
         <v>205883853</v>
       </c>
       <c r="B174" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C174" s="7">
         <v>14</v>
@@ -2460,7 +2457,7 @@
         <v>205883853</v>
       </c>
       <c r="B175" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C175" s="7">
         <v>14</v>
@@ -2471,7 +2468,7 @@
         <v>205883853</v>
       </c>
       <c r="B176" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C176" s="7">
         <v>12</v>
@@ -2482,7 +2479,7 @@
         <v>205883853</v>
       </c>
       <c r="B177" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C177" s="7">
         <v>8</v>
@@ -2493,7 +2490,7 @@
         <v>205883853</v>
       </c>
       <c r="B178" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C178" s="7">
         <v>8</v>
@@ -2514,7 +2511,7 @@
         <v>205883853</v>
       </c>
       <c r="B180" s="11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C180" s="4">
         <v>14</v>
@@ -2525,7 +2522,7 @@
         <v>205883853</v>
       </c>
       <c r="B181" s="11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C181" s="7">
         <v>16</v>
@@ -2536,7 +2533,7 @@
         <v>205883853</v>
       </c>
       <c r="B182" s="11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C182" s="7">
         <v>16</v>
@@ -2547,7 +2544,7 @@
         <v>205883853</v>
       </c>
       <c r="B183" s="11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C183" s="7">
         <v>16</v>
@@ -2558,7 +2555,7 @@
         <v>205883853</v>
       </c>
       <c r="B184" s="11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C184" s="7">
         <v>9</v>
@@ -2569,7 +2566,7 @@
         <v>205883853</v>
       </c>
       <c r="B185" s="11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C185" s="7">
         <v>12</v>
@@ -2580,7 +2577,7 @@
         <v>205883853</v>
       </c>
       <c r="B186" s="11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C186" s="7">
         <v>12</v>
@@ -2601,7 +2598,7 @@
         <v>205883853</v>
       </c>
       <c r="B188" s="11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C188" s="4">
         <v>12</v>
@@ -2612,7 +2609,7 @@
         <v>205883853</v>
       </c>
       <c r="B189" s="11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C189" s="7">
         <v>16</v>
@@ -2623,7 +2620,7 @@
         <v>205883853</v>
       </c>
       <c r="B190" s="11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C190" s="7">
         <v>16</v>
@@ -2634,7 +2631,7 @@
         <v>205883853</v>
       </c>
       <c r="B191" s="11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C191" s="7">
         <v>16</v>
@@ -2645,7 +2642,7 @@
         <v>205883853</v>
       </c>
       <c r="B192" s="11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C192" s="7">
         <v>12</v>
@@ -2656,7 +2653,7 @@
         <v>205883853</v>
       </c>
       <c r="B193" s="11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C193" s="7">
         <v>12</v>
@@ -2667,7 +2664,7 @@
         <v>205883853</v>
       </c>
       <c r="B194" s="11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C194" s="7">
         <v>11</v>
@@ -2688,7 +2685,7 @@
         <v>205883853</v>
       </c>
       <c r="B196" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C196" s="4">
         <v>14</v>
@@ -2699,7 +2696,7 @@
         <v>205883853</v>
       </c>
       <c r="B197" s="11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C197" s="7">
         <v>16</v>
@@ -2710,7 +2707,7 @@
         <v>205883853</v>
       </c>
       <c r="B198" s="11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C198" s="7">
         <v>16</v>
@@ -2721,7 +2718,7 @@
         <v>205883853</v>
       </c>
       <c r="B199" s="11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C199" s="7">
         <v>14</v>
@@ -2732,7 +2729,7 @@
         <v>205883853</v>
       </c>
       <c r="B200" s="11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C200" s="7">
         <v>9</v>
@@ -2743,7 +2740,7 @@
         <v>205883853</v>
       </c>
       <c r="B201" s="11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C201" s="7">
         <v>12</v>
@@ -2754,7 +2751,7 @@
         <v>205883853</v>
       </c>
       <c r="B202" s="11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C202" s="7">
         <v>12</v>
@@ -2786,7 +2783,7 @@
         <v>204922249</v>
       </c>
       <c r="B206" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C206" s="4">
         <v>14</v>
@@ -2797,7 +2794,7 @@
         <v>204922249</v>
       </c>
       <c r="B207" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C207" s="7">
         <v>16</v>
@@ -2808,7 +2805,7 @@
         <v>204922249</v>
       </c>
       <c r="B208" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C208" s="7">
         <v>14</v>
@@ -2819,7 +2816,7 @@
         <v>204922249</v>
       </c>
       <c r="B209" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C209" s="7">
         <v>14</v>
@@ -2830,7 +2827,7 @@
         <v>204922249</v>
       </c>
       <c r="B210" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C210" s="7">
         <v>12</v>
@@ -2841,7 +2838,7 @@
         <v>204922249</v>
       </c>
       <c r="B211" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C211" s="7">
         <v>12</v>
@@ -2852,7 +2849,7 @@
         <v>204922249</v>
       </c>
       <c r="B212" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C212" s="7">
         <v>12</v>
@@ -2873,7 +2870,7 @@
         <v>204922249</v>
       </c>
       <c r="B214" s="11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C214" s="4">
         <v>14</v>
@@ -2884,7 +2881,7 @@
         <v>204922249</v>
       </c>
       <c r="B215" s="11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C215" s="7">
         <v>16</v>
@@ -2895,7 +2892,7 @@
         <v>204922249</v>
       </c>
       <c r="B216" s="11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C216" s="7">
         <v>16</v>
@@ -2906,7 +2903,7 @@
         <v>204922249</v>
       </c>
       <c r="B217" s="11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C217" s="7">
         <v>14</v>
@@ -2917,7 +2914,7 @@
         <v>204922249</v>
       </c>
       <c r="B218" s="11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C218" s="7">
         <v>9</v>
@@ -2928,7 +2925,7 @@
         <v>204922249</v>
       </c>
       <c r="B219" s="11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C219" s="7">
         <v>12</v>
@@ -2939,7 +2936,7 @@
         <v>204922249</v>
       </c>
       <c r="B220" s="11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C220" s="7">
         <v>12</v>
@@ -2960,7 +2957,7 @@
         <v>204922249</v>
       </c>
       <c r="B222" s="11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C222" s="4">
         <v>12</v>
@@ -2971,7 +2968,7 @@
         <v>204922249</v>
       </c>
       <c r="B223" s="11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C223" s="7">
         <v>16</v>
@@ -2982,7 +2979,7 @@
         <v>204922249</v>
       </c>
       <c r="B224" s="11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C224" s="7">
         <v>14</v>
@@ -2993,7 +2990,7 @@
         <v>204922249</v>
       </c>
       <c r="B225" s="11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C225" s="7">
         <v>11</v>
@@ -3004,7 +3001,7 @@
         <v>204922249</v>
       </c>
       <c r="B226" s="11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C226" s="7">
         <v>12</v>
@@ -3015,7 +3012,7 @@
         <v>204922249</v>
       </c>
       <c r="B227" s="11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C227" s="7">
         <v>11</v>
@@ -3026,7 +3023,7 @@
         <v>204922249</v>
       </c>
       <c r="B228" s="11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C228" s="7">
         <v>11</v>
@@ -3047,7 +3044,7 @@
         <v>204922249</v>
       </c>
       <c r="B230" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C230" s="4">
         <v>14</v>
@@ -3058,7 +3055,7 @@
         <v>204922249</v>
       </c>
       <c r="B231" s="11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C231" s="7">
         <v>16</v>
@@ -3069,7 +3066,7 @@
         <v>204922249</v>
       </c>
       <c r="B232" s="11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C232" s="7">
         <v>11</v>
@@ -3080,7 +3077,7 @@
         <v>204922249</v>
       </c>
       <c r="B233" s="11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C233" s="7">
         <v>14</v>
@@ -3091,7 +3088,7 @@
         <v>204922249</v>
       </c>
       <c r="B234" s="11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C234" s="7">
         <v>12</v>
@@ -3102,7 +3099,7 @@
         <v>204922249</v>
       </c>
       <c r="B235" s="11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C235" s="7">
         <v>12</v>
@@ -3113,7 +3110,7 @@
         <v>204922249</v>
       </c>
       <c r="B236" s="11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C236" s="7">
         <v>12</v>
@@ -3145,7 +3142,7 @@
         <v>203677505</v>
       </c>
       <c r="B240" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C240" s="4">
         <v>12</v>
@@ -3156,7 +3153,7 @@
         <v>203677505</v>
       </c>
       <c r="B241" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C241" s="7">
         <v>14</v>
@@ -3167,7 +3164,7 @@
         <v>203677505</v>
       </c>
       <c r="B242" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C242" s="7">
         <v>14</v>
@@ -3178,7 +3175,7 @@
         <v>203677505</v>
       </c>
       <c r="B243" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C243" s="7">
         <v>14</v>
@@ -3189,7 +3186,7 @@
         <v>203677505</v>
       </c>
       <c r="B244" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C244" s="7">
         <v>9</v>
@@ -3200,7 +3197,7 @@
         <v>203677505</v>
       </c>
       <c r="B245" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C245" s="7">
         <v>11</v>
@@ -3211,7 +3208,7 @@
         <v>203677505</v>
       </c>
       <c r="B246" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C246" s="7">
         <v>11</v>
@@ -3232,7 +3229,7 @@
         <v>203677505</v>
       </c>
       <c r="B248" s="11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C248" s="4">
         <v>14</v>
@@ -3243,7 +3240,7 @@
         <v>203677505</v>
       </c>
       <c r="B249" s="11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C249" s="7">
         <v>14</v>
@@ -3254,7 +3251,7 @@
         <v>203677505</v>
       </c>
       <c r="B250" s="11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C250" s="7">
         <v>14</v>
@@ -3265,7 +3262,7 @@
         <v>203677505</v>
       </c>
       <c r="B251" s="11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C251" s="7">
         <v>11</v>
@@ -3276,7 +3273,7 @@
         <v>203677505</v>
       </c>
       <c r="B252" s="11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C252" s="7">
         <v>5</v>
@@ -3287,7 +3284,7 @@
         <v>203677505</v>
       </c>
       <c r="B253" s="11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C253" s="7">
         <v>11</v>
@@ -3298,7 +3295,7 @@
         <v>203677505</v>
       </c>
       <c r="B254" s="11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C254" s="7">
         <v>12</v>
@@ -3319,7 +3316,7 @@
         <v>203677505</v>
       </c>
       <c r="B256" s="11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C256" s="4">
         <v>12</v>
@@ -3330,7 +3327,7 @@
         <v>203677505</v>
       </c>
       <c r="B257" s="11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C257" s="7">
         <v>16</v>
@@ -3341,7 +3338,7 @@
         <v>203677505</v>
       </c>
       <c r="B258" s="11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C258" s="7">
         <v>14</v>
@@ -3352,7 +3349,7 @@
         <v>203677505</v>
       </c>
       <c r="B259" s="11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C259" s="7">
         <v>14</v>
@@ -3363,7 +3360,7 @@
         <v>203677505</v>
       </c>
       <c r="B260" s="11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C260" s="7">
         <v>12</v>
@@ -3374,7 +3371,7 @@
         <v>203677505</v>
       </c>
       <c r="B261" s="11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C261" s="7">
         <v>11</v>
@@ -3385,7 +3382,7 @@
         <v>203677505</v>
       </c>
       <c r="B262" s="11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C262" s="7">
         <v>11</v>
@@ -3406,7 +3403,7 @@
         <v>203677505</v>
       </c>
       <c r="B264" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C264" s="4">
         <v>14</v>
@@ -3417,7 +3414,7 @@
         <v>203677505</v>
       </c>
       <c r="B265" s="11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C265" s="7">
         <v>16</v>
@@ -3428,7 +3425,7 @@
         <v>203677505</v>
       </c>
       <c r="B266" s="11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C266" s="7">
         <v>14</v>
@@ -3439,7 +3436,7 @@
         <v>203677505</v>
       </c>
       <c r="B267" s="11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C267" s="7">
         <v>14</v>
@@ -3450,7 +3447,7 @@
         <v>203677505</v>
       </c>
       <c r="B268" s="11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C268" s="7">
         <v>9</v>
@@ -3461,7 +3458,7 @@
         <v>203677505</v>
       </c>
       <c r="B269" s="11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C269" s="7">
         <v>12</v>
@@ -3472,7 +3469,7 @@
         <v>203677505</v>
       </c>
       <c r="B270" s="11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C270" s="7">
         <v>12</v>
@@ -3501,10 +3498,10 @@
     <row r="273" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="274" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A274" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B274" s="3" t="s">
         <v>9</v>
-      </c>
-      <c r="B274" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="C274" s="4">
         <v>9</v>
@@ -3512,10 +3509,10 @@
     </row>
     <row r="275" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A275" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B275" s="11" t="s">
         <v>9</v>
-      </c>
-      <c r="B275" s="11" t="s">
-        <v>10</v>
       </c>
       <c r="C275" s="7">
         <v>14</v>
@@ -3523,10 +3520,10 @@
     </row>
     <row r="276" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A276" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B276" s="11" t="s">
         <v>9</v>
-      </c>
-      <c r="B276" s="11" t="s">
-        <v>10</v>
       </c>
       <c r="C276" s="7">
         <v>14</v>
@@ -3534,10 +3531,10 @@
     </row>
     <row r="277" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A277" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B277" s="11" t="s">
         <v>9</v>
-      </c>
-      <c r="B277" s="11" t="s">
-        <v>10</v>
       </c>
       <c r="C277" s="7">
         <v>16</v>
@@ -3545,10 +3542,10 @@
     </row>
     <row r="278" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A278" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B278" s="11" t="s">
         <v>9</v>
-      </c>
-      <c r="B278" s="11" t="s">
-        <v>10</v>
       </c>
       <c r="C278" s="7">
         <v>9</v>
@@ -3556,10 +3553,10 @@
     </row>
     <row r="279" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A279" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B279" s="11" t="s">
         <v>9</v>
-      </c>
-      <c r="B279" s="11" t="s">
-        <v>10</v>
       </c>
       <c r="C279" s="7">
         <v>11</v>
@@ -3567,10 +3564,10 @@
     </row>
     <row r="280" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A280" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B280" s="11" t="s">
         <v>9</v>
-      </c>
-      <c r="B280" s="11" t="s">
-        <v>10</v>
       </c>
       <c r="C280" s="7">
         <v>12</v>
@@ -3588,10 +3585,10 @@
     </row>
     <row r="282" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A282" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B282" s="11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C282" s="4">
         <v>12</v>
@@ -3599,10 +3596,10 @@
     </row>
     <row r="283" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A283" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B283" s="11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C283" s="7">
         <v>16</v>
@@ -3610,10 +3607,10 @@
     </row>
     <row r="284" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A284" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B284" s="11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C284" s="7">
         <v>14</v>
@@ -3621,10 +3618,10 @@
     </row>
     <row r="285" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A285" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B285" s="11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C285" s="7">
         <v>14</v>
@@ -3632,10 +3629,10 @@
     </row>
     <row r="286" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A286" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B286" s="11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C286" s="7">
         <v>12</v>
@@ -3643,10 +3640,10 @@
     </row>
     <row r="287" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A287" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B287" s="11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C287" s="7">
         <v>12</v>
@@ -3654,10 +3651,10 @@
     </row>
     <row r="288" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A288" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B288" s="11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C288" s="7">
         <v>12</v>
@@ -3675,10 +3672,10 @@
     </row>
     <row r="290" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A290" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B290" s="11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C290" s="4">
         <v>12</v>
@@ -3686,10 +3683,10 @@
     </row>
     <row r="291" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A291" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B291" s="11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C291" s="7">
         <v>16</v>
@@ -3697,10 +3694,10 @@
     </row>
     <row r="292" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A292" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B292" s="11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C292" s="7">
         <v>14</v>
@@ -3708,10 +3705,10 @@
     </row>
     <row r="293" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A293" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B293" s="11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C293" s="7">
         <v>11</v>
@@ -3719,10 +3716,10 @@
     </row>
     <row r="294" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A294" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B294" s="11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C294" s="7">
         <v>12</v>
@@ -3730,10 +3727,10 @@
     </row>
     <row r="295" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A295" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B295" s="11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C295" s="7">
         <v>11</v>
@@ -3741,10 +3738,10 @@
     </row>
     <row r="296" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A296" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B296" s="11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C296" s="7">
         <v>11</v>
@@ -3762,10 +3759,10 @@
     </row>
     <row r="298" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A298" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B298" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C298" s="4">
         <v>14</v>
@@ -3773,10 +3770,10 @@
     </row>
     <row r="299" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A299" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B299" s="11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C299" s="7">
         <v>16</v>
@@ -3784,10 +3781,10 @@
     </row>
     <row r="300" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A300" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B300" s="11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C300" s="7">
         <v>16</v>
@@ -3795,10 +3792,10 @@
     </row>
     <row r="301" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A301" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B301" s="11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C301" s="7">
         <v>11</v>
@@ -3806,10 +3803,10 @@
     </row>
     <row r="302" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A302" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B302" s="11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C302" s="7">
         <v>12</v>
@@ -3817,10 +3814,10 @@
     </row>
     <row r="303" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A303" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B303" s="11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C303" s="7">
         <v>12</v>
@@ -3828,10 +3825,10 @@
     </row>
     <row r="304" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A304" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B304" s="11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C304" s="7">
         <v>11</v>
@@ -3863,7 +3860,7 @@
         <v>206318172</v>
       </c>
       <c r="B308" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C308" s="4">
         <v>14</v>
@@ -3874,7 +3871,7 @@
         <v>206318172</v>
       </c>
       <c r="B309" s="11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C309" s="7">
         <v>14</v>
@@ -3885,7 +3882,7 @@
         <v>206318172</v>
       </c>
       <c r="B310" s="11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C310" s="7">
         <v>14</v>
@@ -3896,7 +3893,7 @@
         <v>206318172</v>
       </c>
       <c r="B311" s="11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C311" s="7">
         <v>14</v>
@@ -3907,7 +3904,7 @@
         <v>206318172</v>
       </c>
       <c r="B312" s="11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C312" s="7">
         <v>12</v>
@@ -3918,7 +3915,7 @@
         <v>206318172</v>
       </c>
       <c r="B313" s="11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C313" s="7">
         <v>12</v>
@@ -3929,7 +3926,7 @@
         <v>206318172</v>
       </c>
       <c r="B314" s="11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C314" s="7">
         <v>12</v>
@@ -3950,7 +3947,7 @@
         <v>206318172</v>
       </c>
       <c r="B316" s="11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C316" s="4">
         <v>9</v>
@@ -3961,7 +3958,7 @@
         <v>206318172</v>
       </c>
       <c r="B317" s="11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C317" s="7">
         <v>14</v>
@@ -3972,7 +3969,7 @@
         <v>206318172</v>
       </c>
       <c r="B318" s="11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C318" s="7">
         <v>14</v>
@@ -3983,7 +3980,7 @@
         <v>206318172</v>
       </c>
       <c r="B319" s="11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C319" s="7">
         <v>11</v>
@@ -3994,7 +3991,7 @@
         <v>206318172</v>
       </c>
       <c r="B320" s="11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C320" s="7">
         <v>12</v>
@@ -4005,7 +4002,7 @@
         <v>206318172</v>
       </c>
       <c r="B321" s="11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C321" s="7">
         <v>11</v>
@@ -4016,7 +4013,7 @@
         <v>206318172</v>
       </c>
       <c r="B322" s="11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C322" s="7">
         <v>12</v>
@@ -4037,7 +4034,7 @@
         <v>206318172</v>
       </c>
       <c r="B324" s="11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C324" s="4">
         <v>14</v>
@@ -4048,7 +4045,7 @@
         <v>206318172</v>
       </c>
       <c r="B325" s="11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C325" s="7">
         <v>16</v>
@@ -4059,7 +4056,7 @@
         <v>206318172</v>
       </c>
       <c r="B326" s="11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C326" s="7">
         <v>14</v>
@@ -4070,7 +4067,7 @@
         <v>206318172</v>
       </c>
       <c r="B327" s="11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C327" s="7">
         <v>14</v>
@@ -4081,7 +4078,7 @@
         <v>206318172</v>
       </c>
       <c r="B328" s="11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C328" s="7">
         <v>12</v>
@@ -4092,7 +4089,7 @@
         <v>206318172</v>
       </c>
       <c r="B329" s="11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C329" s="7">
         <v>11</v>
@@ -4103,7 +4100,7 @@
         <v>206318172</v>
       </c>
       <c r="B330" s="11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C330" s="7">
         <v>12</v>
@@ -4124,7 +4121,7 @@
         <v>206318172</v>
       </c>
       <c r="B332" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C332" s="4">
         <v>14</v>
@@ -4135,7 +4132,7 @@
         <v>206318172</v>
       </c>
       <c r="B333" s="11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C333" s="7">
         <v>16</v>
@@ -4146,7 +4143,7 @@
         <v>206318172</v>
       </c>
       <c r="B334" s="11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C334" s="7">
         <v>16</v>
@@ -4157,7 +4154,7 @@
         <v>206318172</v>
       </c>
       <c r="B335" s="11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C335" s="7">
         <v>14</v>
@@ -4168,7 +4165,7 @@
         <v>206318172</v>
       </c>
       <c r="B336" s="11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C336" s="7">
         <v>12</v>
@@ -4179,7 +4176,7 @@
         <v>206318172</v>
       </c>
       <c r="B337" s="11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C337" s="7">
         <v>11</v>
@@ -4190,7 +4187,7 @@
         <v>206318172</v>
       </c>
       <c r="B338" s="11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C338" s="7">
         <v>8</v>
@@ -4219,10 +4216,10 @@
     <row r="341" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="342" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A342" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B342" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C342" s="4">
         <v>12</v>
@@ -4230,10 +4227,10 @@
     </row>
     <row r="343" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A343" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B343" s="11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C343" s="7">
         <v>11</v>
@@ -4241,10 +4238,10 @@
     </row>
     <row r="344" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A344" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B344" s="11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C344" s="7">
         <v>11</v>
@@ -4252,10 +4249,10 @@
     </row>
     <row r="345" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A345" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B345" s="11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C345" s="7">
         <v>16</v>
@@ -4263,10 +4260,10 @@
     </row>
     <row r="346" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A346" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B346" s="11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C346" s="7">
         <v>5</v>
@@ -4274,10 +4271,10 @@
     </row>
     <row r="347" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A347" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B347" s="11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C347" s="7">
         <v>11</v>
@@ -4285,10 +4282,10 @@
     </row>
     <row r="348" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A348" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B348" s="11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C348" s="7">
         <v>12</v>
@@ -4306,10 +4303,10 @@
     </row>
     <row r="350" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A350" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B350" s="11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C350" s="4">
         <v>12</v>
@@ -4317,10 +4314,10 @@
     </row>
     <row r="351" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A351" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B351" s="11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C351" s="7">
         <v>11</v>
@@ -4328,10 +4325,10 @@
     </row>
     <row r="352" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A352" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B352" s="11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C352" s="7">
         <v>11</v>
@@ -4339,10 +4336,10 @@
     </row>
     <row r="353" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A353" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B353" s="11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C353" s="7">
         <v>14</v>
@@ -4350,10 +4347,10 @@
     </row>
     <row r="354" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A354" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B354" s="11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C354" s="7">
         <v>9</v>
@@ -4361,10 +4358,10 @@
     </row>
     <row r="355" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A355" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B355" s="11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C355" s="7">
         <v>11</v>
@@ -4372,10 +4369,10 @@
     </row>
     <row r="356" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A356" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B356" s="11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C356" s="7">
         <v>11</v>
@@ -4393,10 +4390,10 @@
     </row>
     <row r="358" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A358" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B358" s="11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C358" s="4">
         <v>12</v>
@@ -4404,10 +4401,10 @@
     </row>
     <row r="359" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A359" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B359" s="11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C359" s="7">
         <v>14</v>
@@ -4415,10 +4412,10 @@
     </row>
     <row r="360" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A360" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B360" s="11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C360" s="7">
         <v>14</v>
@@ -4426,10 +4423,10 @@
     </row>
     <row r="361" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A361" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B361" s="11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C361" s="7">
         <v>11</v>
@@ -4437,10 +4434,10 @@
     </row>
     <row r="362" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A362" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B362" s="11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C362" s="7">
         <v>12</v>
@@ -4448,10 +4445,10 @@
     </row>
     <row r="363" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A363" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B363" s="11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C363" s="7">
         <v>11</v>
@@ -4459,10 +4456,10 @@
     </row>
     <row r="364" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A364" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B364" s="11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C364" s="7">
         <v>11</v>
@@ -4480,10 +4477,10 @@
     </row>
     <row r="366" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A366" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B366" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C366" s="4">
         <v>14</v>
@@ -4491,10 +4488,10 @@
     </row>
     <row r="367" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A367" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B367" s="11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C367" s="7">
         <v>16</v>
@@ -4502,10 +4499,10 @@
     </row>
     <row r="368" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A368" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B368" s="11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C368" s="7">
         <v>16</v>
@@ -4513,10 +4510,10 @@
     </row>
     <row r="369" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A369" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B369" s="11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C369" s="7">
         <v>14</v>
@@ -4524,10 +4521,10 @@
     </row>
     <row r="370" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A370" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B370" s="11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C370" s="7">
         <v>9</v>
@@ -4535,10 +4532,10 @@
     </row>
     <row r="371" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A371" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B371" s="11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C371" s="7">
         <v>11</v>
@@ -4546,10 +4543,10 @@
     </row>
     <row r="372" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A372" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B372" s="11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C372" s="7">
         <v>11</v>
@@ -4581,7 +4578,7 @@
         <v>206115107</v>
       </c>
       <c r="B376" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C376" s="4">
         <v>14</v>
@@ -4592,7 +4589,7 @@
         <v>206115107</v>
       </c>
       <c r="B377" s="11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C377" s="7">
         <v>16</v>
@@ -4603,7 +4600,7 @@
         <v>206115107</v>
       </c>
       <c r="B378" s="11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C378" s="7">
         <v>14</v>
@@ -4614,7 +4611,7 @@
         <v>206115107</v>
       </c>
       <c r="B379" s="11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C379" s="7">
         <v>16</v>
@@ -4625,7 +4622,7 @@
         <v>206115107</v>
       </c>
       <c r="B380" s="11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C380" s="7">
         <v>9</v>
@@ -4636,7 +4633,7 @@
         <v>206115107</v>
       </c>
       <c r="B381" s="11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C381" s="7">
         <v>12</v>
@@ -4647,7 +4644,7 @@
         <v>206115107</v>
       </c>
       <c r="B382" s="11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C382" s="7">
         <v>12</v>
@@ -4668,7 +4665,7 @@
         <v>206115107</v>
       </c>
       <c r="B384" s="11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C384" s="4">
         <v>12</v>
@@ -4679,7 +4676,7 @@
         <v>206115107</v>
       </c>
       <c r="B385" s="11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C385" s="7">
         <v>16</v>
@@ -4690,7 +4687,7 @@
         <v>206115107</v>
       </c>
       <c r="B386" s="11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C386" s="7">
         <v>14</v>
@@ -4701,7 +4698,7 @@
         <v>206115107</v>
       </c>
       <c r="B387" s="11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C387" s="7">
         <v>14</v>
@@ -4712,7 +4709,7 @@
         <v>206115107</v>
       </c>
       <c r="B388" s="11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C388" s="7">
         <v>12</v>
@@ -4723,7 +4720,7 @@
         <v>206115107</v>
       </c>
       <c r="B389" s="11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C389" s="7">
         <v>11</v>
@@ -4734,7 +4731,7 @@
         <v>206115107</v>
       </c>
       <c r="B390" s="11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C390" s="7">
         <v>11</v>
@@ -4755,7 +4752,7 @@
         <v>206115107</v>
       </c>
       <c r="B392" s="11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C392" s="4">
         <v>12</v>
@@ -4766,7 +4763,7 @@
         <v>206115107</v>
       </c>
       <c r="B393" s="11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C393" s="7">
         <v>16</v>
@@ -4777,7 +4774,7 @@
         <v>206115107</v>
       </c>
       <c r="B394" s="11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C394" s="7">
         <v>14</v>
@@ -4788,7 +4785,7 @@
         <v>206115107</v>
       </c>
       <c r="B395" s="11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C395" s="7">
         <v>16</v>
@@ -4799,7 +4796,7 @@
         <v>206115107</v>
       </c>
       <c r="B396" s="11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C396" s="7">
         <v>12</v>
@@ -4810,7 +4807,7 @@
         <v>206115107</v>
       </c>
       <c r="B397" s="11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C397" s="7">
         <v>12</v>
@@ -4821,7 +4818,7 @@
         <v>206115107</v>
       </c>
       <c r="B398" s="11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C398" s="7">
         <v>12</v>
@@ -4842,7 +4839,7 @@
         <v>206115107</v>
       </c>
       <c r="B400" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C400" s="4">
         <v>12</v>
@@ -4853,7 +4850,7 @@
         <v>206115107</v>
       </c>
       <c r="B401" s="11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C401" s="7">
         <v>14</v>
@@ -4864,7 +4861,7 @@
         <v>206115107</v>
       </c>
       <c r="B402" s="11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C402" s="7">
         <v>16</v>
@@ -4875,7 +4872,7 @@
         <v>206115107</v>
       </c>
       <c r="B403" s="11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C403" s="7">
         <v>16</v>
@@ -4886,7 +4883,7 @@
         <v>206115107</v>
       </c>
       <c r="B404" s="11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C404" s="7">
         <v>14</v>
@@ -4897,7 +4894,7 @@
         <v>206115107</v>
       </c>
       <c r="B405" s="11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C405" s="7">
         <v>12</v>
@@ -4908,7 +4905,7 @@
         <v>206115107</v>
       </c>
       <c r="B406" s="11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C406" s="7">
         <v>11</v>
@@ -4937,10 +4934,10 @@
     <row r="409" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="410" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A410" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B410" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C410" s="4">
         <v>9</v>
@@ -4948,10 +4945,10 @@
     </row>
     <row r="411" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A411" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B411" s="11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C411" s="7">
         <v>14</v>
@@ -4959,10 +4956,10 @@
     </row>
     <row r="412" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A412" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B412" s="11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C412" s="7">
         <v>11</v>
@@ -4970,10 +4967,10 @@
     </row>
     <row r="413" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A413" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B413" s="11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C413" s="7">
         <v>14</v>
@@ -4981,10 +4978,10 @@
     </row>
     <row r="414" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A414" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B414" s="11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C414" s="7">
         <v>9</v>
@@ -4992,10 +4989,10 @@
     </row>
     <row r="415" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A415" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B415" s="11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C415" s="7">
         <v>12</v>
@@ -5003,10 +5000,10 @@
     </row>
     <row r="416" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A416" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B416" s="11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C416" s="7">
         <v>12</v>
@@ -5024,10 +5021,10 @@
     </row>
     <row r="418" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A418" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B418" s="11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C418" s="4">
         <v>12</v>
@@ -5035,10 +5032,10 @@
     </row>
     <row r="419" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A419" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B419" s="11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C419" s="7">
         <v>14</v>
@@ -5046,10 +5043,10 @@
     </row>
     <row r="420" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A420" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B420" s="11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C420" s="7">
         <v>14</v>
@@ -5057,10 +5054,10 @@
     </row>
     <row r="421" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A421" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B421" s="11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C421" s="7">
         <v>14</v>
@@ -5068,10 +5065,10 @@
     </row>
     <row r="422" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A422" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B422" s="11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C422" s="7">
         <v>9</v>
@@ -5079,10 +5076,10 @@
     </row>
     <row r="423" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A423" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B423" s="11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C423" s="7">
         <v>11</v>
@@ -5090,10 +5087,10 @@
     </row>
     <row r="424" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A424" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B424" s="11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C424" s="7">
         <v>11</v>
@@ -5111,10 +5108,10 @@
     </row>
     <row r="426" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A426" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B426" s="11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C426" s="4">
         <v>12</v>
@@ -5122,10 +5119,10 @@
     </row>
     <row r="427" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A427" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B427" s="11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C427" s="7">
         <v>14</v>
@@ -5133,10 +5130,10 @@
     </row>
     <row r="428" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A428" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B428" s="11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C428" s="7">
         <v>11</v>
@@ -5144,10 +5141,10 @@
     </row>
     <row r="429" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A429" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B429" s="11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C429" s="7">
         <v>14</v>
@@ -5155,10 +5152,10 @@
     </row>
     <row r="430" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A430" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B430" s="11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C430" s="7">
         <v>9</v>
@@ -5166,10 +5163,10 @@
     </row>
     <row r="431" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A431" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B431" s="11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C431" s="7">
         <v>8</v>
@@ -5177,10 +5174,10 @@
     </row>
     <row r="432" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A432" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B432" s="11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C432" s="7">
         <v>8</v>
@@ -5198,10 +5195,10 @@
     </row>
     <row r="434" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A434" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B434" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C434" s="4">
         <v>12</v>
@@ -5209,10 +5206,10 @@
     </row>
     <row r="435" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A435" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B435" s="11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C435" s="7">
         <v>16</v>
@@ -5220,10 +5217,10 @@
     </row>
     <row r="436" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A436" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B436" s="11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C436" s="7">
         <v>14</v>
@@ -5231,10 +5228,10 @@
     </row>
     <row r="437" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A437" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B437" s="11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C437" s="7">
         <v>14</v>
@@ -5242,10 +5239,10 @@
     </row>
     <row r="438" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A438" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B438" s="11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C438" s="7">
         <v>14</v>
@@ -5253,10 +5250,10 @@
     </row>
     <row r="439" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A439" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B439" s="11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C439" s="7">
         <v>11</v>
@@ -5264,10 +5261,10 @@
     </row>
     <row r="440" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A440" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B440" s="11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C440" s="7">
         <v>12</v>
@@ -5296,10 +5293,10 @@
     <row r="443" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="444" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A444" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B444" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C444" s="4">
         <v>9</v>
@@ -5307,10 +5304,10 @@
     </row>
     <row r="445" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A445" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B445" s="11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C445" s="7">
         <v>11</v>
@@ -5318,10 +5315,10 @@
     </row>
     <row r="446" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A446" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B446" s="11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C446" s="7">
         <v>14</v>
@@ -5329,10 +5326,10 @@
     </row>
     <row r="447" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A447" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B447" s="11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C447" s="7">
         <v>14</v>
@@ -5340,10 +5337,10 @@
     </row>
     <row r="448" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A448" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B448" s="11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C448" s="7">
         <v>9</v>
@@ -5351,10 +5348,10 @@
     </row>
     <row r="449" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A449" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B449" s="11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C449" s="7">
         <v>12</v>
@@ -5362,10 +5359,10 @@
     </row>
     <row r="450" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A450" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B450" s="11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C450" s="7">
         <v>12</v>
@@ -5383,10 +5380,10 @@
     </row>
     <row r="452" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A452" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B452" s="11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C452" s="4">
         <v>12</v>
@@ -5394,10 +5391,10 @@
     </row>
     <row r="453" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A453" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B453" s="11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C453" s="7">
         <v>11</v>
@@ -5405,10 +5402,10 @@
     </row>
     <row r="454" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A454" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B454" s="11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C454" s="7">
         <v>16</v>
@@ -5416,10 +5413,10 @@
     </row>
     <row r="455" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A455" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B455" s="11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C455" s="7">
         <v>14</v>
@@ -5427,10 +5424,10 @@
     </row>
     <row r="456" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A456" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B456" s="11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C456" s="7">
         <v>12</v>
@@ -5438,10 +5435,10 @@
     </row>
     <row r="457" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A457" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B457" s="11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C457" s="7">
         <v>11</v>
@@ -5449,10 +5446,10 @@
     </row>
     <row r="458" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A458" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B458" s="11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C458" s="7">
         <v>11</v>
@@ -5470,10 +5467,10 @@
     </row>
     <row r="460" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A460" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B460" s="11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C460" s="4">
         <v>12</v>
@@ -5481,10 +5478,10 @@
     </row>
     <row r="461" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A461" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B461" s="11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C461" s="7">
         <v>16</v>
@@ -5492,10 +5489,10 @@
     </row>
     <row r="462" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A462" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B462" s="11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C462" s="7">
         <v>16</v>
@@ -5503,10 +5500,10 @@
     </row>
     <row r="463" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A463" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B463" s="11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C463" s="7">
         <v>16</v>
@@ -5514,10 +5511,10 @@
     </row>
     <row r="464" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A464" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B464" s="11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C464" s="7">
         <v>12</v>
@@ -5525,10 +5522,10 @@
     </row>
     <row r="465" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A465" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B465" s="11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C465" s="7">
         <v>11</v>
@@ -5536,10 +5533,10 @@
     </row>
     <row r="466" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A466" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B466" s="11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C466" s="7">
         <v>11</v>
@@ -5557,10 +5554,10 @@
     </row>
     <row r="468" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A468" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B468" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C468" s="4">
         <v>12</v>
@@ -5568,10 +5565,10 @@
     </row>
     <row r="469" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A469" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B469" s="11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C469" s="7">
         <v>16</v>
@@ -5579,10 +5576,10 @@
     </row>
     <row r="470" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A470" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B470" s="11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C470" s="7">
         <v>14</v>
@@ -5590,10 +5587,10 @@
     </row>
     <row r="471" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A471" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B471" s="11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C471" s="7">
         <v>16</v>
@@ -5601,10 +5598,10 @@
     </row>
     <row r="472" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A472" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B472" s="11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C472" s="7">
         <v>14</v>
@@ -5612,10 +5609,10 @@
     </row>
     <row r="473" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A473" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B473" s="11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C473" s="7">
         <v>12</v>
@@ -5623,10 +5620,10 @@
     </row>
     <row r="474" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A474" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B474" s="11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C474" s="7">
         <v>11</v>
@@ -5658,7 +5655,7 @@
         <v>205375215</v>
       </c>
       <c r="B478" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C478" s="4">
         <v>14</v>
@@ -5669,7 +5666,7 @@
         <v>205375215</v>
       </c>
       <c r="B479" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C479" s="7">
         <v>16</v>
@@ -5680,7 +5677,7 @@
         <v>205375215</v>
       </c>
       <c r="B480" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C480" s="7">
         <v>14</v>
@@ -5691,7 +5688,7 @@
         <v>205375215</v>
       </c>
       <c r="B481" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C481" s="7">
         <v>14</v>
@@ -5702,7 +5699,7 @@
         <v>205375215</v>
       </c>
       <c r="B482" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C482" s="7">
         <v>12</v>
@@ -5713,7 +5710,7 @@
         <v>205375215</v>
       </c>
       <c r="B483" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C483" s="7">
         <v>12</v>
@@ -5724,7 +5721,7 @@
         <v>205375215</v>
       </c>
       <c r="B484" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C484" s="7">
         <v>12</v>
@@ -5744,64 +5741,78 @@
       <c r="A486" s="2">
         <v>205375215</v>
       </c>
-      <c r="B486" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C486" s="4"/>
+      <c r="B486" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="C486" s="4">
+        <v>14</v>
+      </c>
     </row>
     <row r="487" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A487" s="5">
         <v>205375215</v>
       </c>
       <c r="B487" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="C487" s="7"/>
+        <v>21</v>
+      </c>
+      <c r="C487" s="7">
+        <v>16</v>
+      </c>
     </row>
     <row r="488" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A488" s="5">
         <v>205375215</v>
       </c>
       <c r="B488" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="C488" s="7"/>
+        <v>21</v>
+      </c>
+      <c r="C488" s="7">
+        <v>14</v>
+      </c>
     </row>
     <row r="489" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A489" s="5">
         <v>205375215</v>
       </c>
       <c r="B489" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="C489" s="7"/>
+        <v>21</v>
+      </c>
+      <c r="C489" s="7">
+        <v>16</v>
+      </c>
     </row>
     <row r="490" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A490" s="5">
         <v>205375215</v>
       </c>
       <c r="B490" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="C490" s="7"/>
+        <v>21</v>
+      </c>
+      <c r="C490" s="7">
+        <v>14</v>
+      </c>
     </row>
     <row r="491" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A491" s="5">
         <v>205375215</v>
       </c>
       <c r="B491" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="C491" s="7"/>
+        <v>21</v>
+      </c>
+      <c r="C491" s="7">
+        <v>11</v>
+      </c>
     </row>
     <row r="492" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A492" s="5">
         <v>205375215</v>
       </c>
       <c r="B492" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="C492" s="7"/>
+        <v>21</v>
+      </c>
+      <c r="C492" s="7">
+        <v>11</v>
+      </c>
     </row>
     <row r="493" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A493" s="8"/>
@@ -5810,14 +5821,14 @@
       </c>
       <c r="C493" s="10">
         <f>SUM(C486:C492)</f>
-        <v>0</v>
+        <v>96</v>
       </c>
     </row>
     <row r="494" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A494" s="2">
         <v>205375215</v>
       </c>
-      <c r="B494" s="11" t="s">
+      <c r="B494" s="3" t="s">
         <v>22</v>
       </c>
       <c r="C494" s="4">
@@ -5832,7 +5843,7 @@
         <v>22</v>
       </c>
       <c r="C495" s="7">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="496" spans="1:3" x14ac:dyDescent="0.3">
@@ -5843,7 +5854,7 @@
         <v>22</v>
       </c>
       <c r="C496" s="7">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="497" spans="1:3" x14ac:dyDescent="0.3">
@@ -5876,7 +5887,7 @@
         <v>22</v>
       </c>
       <c r="C499" s="7">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="500" spans="1:3" x14ac:dyDescent="0.3">
@@ -5887,7 +5898,7 @@
         <v>22</v>
       </c>
       <c r="C500" s="7">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="501" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -5897,59 +5908,48 @@
       </c>
       <c r="C501" s="10">
         <f>SUM(C494:C500)</f>
-        <v>96</v>
-      </c>
-    </row>
-    <row r="502" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A502" s="2">
-        <v>205375215</v>
-      </c>
-      <c r="B502" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C502" s="4">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="503" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A503" s="5">
-        <v>205375215</v>
-      </c>
-      <c r="B503" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="C503" s="7">
-        <v>14</v>
-      </c>
-    </row>
+        <v>98</v>
+      </c>
+    </row>
+    <row r="502" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A502" s="12"/>
+      <c r="B502" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="C502" s="14" t="e">
+        <f>AVERAGE(C501,C493,#REF!,C485)</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="503" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="504" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A504" s="5">
-        <v>205375215</v>
-      </c>
-      <c r="B504" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="C504" s="7">
-        <v>16</v>
+      <c r="A504" s="2">
+        <v>315824565</v>
+      </c>
+      <c r="B504" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C504" s="4">
+        <v>12</v>
       </c>
     </row>
     <row r="505" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A505" s="5">
-        <v>205375215</v>
+        <v>315824565</v>
       </c>
       <c r="B505" s="11" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="C505" s="7">
-        <v>16</v>
+        <v>11</v>
       </c>
     </row>
     <row r="506" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A506" s="5">
-        <v>205375215</v>
+        <v>315824565</v>
       </c>
       <c r="B506" s="11" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="C506" s="7">
         <v>14</v>
@@ -5957,56 +5957,67 @@
     </row>
     <row r="507" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A507" s="5">
-        <v>205375215</v>
+        <v>315824565</v>
       </c>
       <c r="B507" s="11" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="C507" s="7">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="508" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A508" s="5">
-        <v>205375215</v>
+        <v>315824565</v>
       </c>
       <c r="B508" s="11" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="C508" s="7">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="509" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A509" s="8"/>
-      <c r="B509" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="C509" s="10">
-        <f>SUM(C502:C508)</f>
-        <v>98</v>
-      </c>
-    </row>
-    <row r="510" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A510" s="12"/>
-      <c r="B510" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="C510" s="14">
-        <f>AVERAGE(C509,C501,C493,C485)</f>
-        <v>72</v>
-      </c>
-    </row>
-    <row r="511" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="509" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A509" s="5">
+        <v>315824565</v>
+      </c>
+      <c r="B509" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C509" s="7">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="510" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A510" s="5">
+        <v>315824565</v>
+      </c>
+      <c r="B510" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C510" s="7">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="511" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A511" s="8"/>
+      <c r="B511" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="C511" s="10">
+        <f>SUM(C504:C510)</f>
+        <v>82</v>
+      </c>
+    </row>
     <row r="512" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A512" s="2">
         <v>315824565</v>
       </c>
       <c r="B512" s="3" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="C512" s="4">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="513" spans="1:3" x14ac:dyDescent="0.3">
@@ -6014,10 +6025,10 @@
         <v>315824565</v>
       </c>
       <c r="B513" s="11" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="C513" s="7">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="514" spans="1:3" x14ac:dyDescent="0.3">
@@ -6025,10 +6036,10 @@
         <v>315824565</v>
       </c>
       <c r="B514" s="11" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="C514" s="7">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="515" spans="1:3" x14ac:dyDescent="0.3">
@@ -6036,10 +6047,10 @@
         <v>315824565</v>
       </c>
       <c r="B515" s="11" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="C515" s="7">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="516" spans="1:3" x14ac:dyDescent="0.3">
@@ -6047,10 +6058,10 @@
         <v>315824565</v>
       </c>
       <c r="B516" s="11" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="C516" s="7">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="517" spans="1:3" x14ac:dyDescent="0.3">
@@ -6058,7 +6069,7 @@
         <v>315824565</v>
       </c>
       <c r="B517" s="11" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="C517" s="7">
         <v>11</v>
@@ -6069,10 +6080,10 @@
         <v>315824565</v>
       </c>
       <c r="B518" s="11" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="C518" s="7">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="519" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -6082,18 +6093,18 @@
       </c>
       <c r="C519" s="10">
         <f>SUM(C512:C518)</f>
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="520" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A520" s="2">
         <v>315824565</v>
       </c>
-      <c r="B520" s="3" t="s">
-        <v>12</v>
+      <c r="B520" s="11" t="s">
+        <v>21</v>
       </c>
       <c r="C520" s="4">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="521" spans="1:3" x14ac:dyDescent="0.3">
@@ -6101,10 +6112,10 @@
         <v>315824565</v>
       </c>
       <c r="B521" s="11" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="C521" s="7">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="522" spans="1:3" x14ac:dyDescent="0.3">
@@ -6112,10 +6123,10 @@
         <v>315824565</v>
       </c>
       <c r="B522" s="11" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="C522" s="7">
-        <v>11</v>
+        <v>16</v>
       </c>
     </row>
     <row r="523" spans="1:3" x14ac:dyDescent="0.3">
@@ -6123,10 +6134,10 @@
         <v>315824565</v>
       </c>
       <c r="B523" s="11" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="C523" s="7">
-        <v>11</v>
+        <v>16</v>
       </c>
     </row>
     <row r="524" spans="1:3" x14ac:dyDescent="0.3">
@@ -6134,10 +6145,10 @@
         <v>315824565</v>
       </c>
       <c r="B524" s="11" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="C524" s="7">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="525" spans="1:3" x14ac:dyDescent="0.3">
@@ -6145,7 +6156,7 @@
         <v>315824565</v>
       </c>
       <c r="B525" s="11" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="C525" s="7">
         <v>11</v>
@@ -6156,7 +6167,7 @@
         <v>315824565</v>
       </c>
       <c r="B526" s="11" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="C526" s="7">
         <v>12</v>
@@ -6169,18 +6180,18 @@
       </c>
       <c r="C527" s="10">
         <f>SUM(C520:C526)</f>
-        <v>80</v>
+        <v>99</v>
       </c>
     </row>
     <row r="528" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A528" s="2">
         <v>315824565</v>
       </c>
-      <c r="B528" s="11" t="s">
+      <c r="B528" s="3" t="s">
         <v>22</v>
       </c>
       <c r="C528" s="4">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="529" spans="1:3" x14ac:dyDescent="0.3">
@@ -6224,7 +6235,7 @@
         <v>22</v>
       </c>
       <c r="C532" s="7">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="533" spans="1:3" x14ac:dyDescent="0.3">
@@ -6235,7 +6246,7 @@
         <v>22</v>
       </c>
       <c r="C533" s="7">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="534" spans="1:3" x14ac:dyDescent="0.3">
@@ -6246,7 +6257,7 @@
         <v>22</v>
       </c>
       <c r="C534" s="7">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="535" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -6256,48 +6267,37 @@
       </c>
       <c r="C535" s="10">
         <f>SUM(C528:C534)</f>
-        <v>99</v>
-      </c>
-    </row>
-    <row r="536" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A536" s="2">
-        <v>315824565</v>
-      </c>
-      <c r="B536" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C536" s="4">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="537" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A537" s="5">
-        <v>315824565</v>
-      </c>
-      <c r="B537" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="C537" s="7">
-        <v>16</v>
-      </c>
-    </row>
+        <v>95</v>
+      </c>
+    </row>
+    <row r="536" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A536" s="12"/>
+      <c r="B536" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="C536" s="14">
+        <f>AVERAGE(C535,C527,C519,C511)</f>
+        <v>89</v>
+      </c>
+    </row>
+    <row r="537" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="538" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A538" s="5">
-        <v>315824565</v>
-      </c>
-      <c r="B538" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="C538" s="7">
-        <v>16</v>
+      <c r="A538" s="2">
+        <v>319039822</v>
+      </c>
+      <c r="B538" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C538" s="4">
+        <v>14</v>
       </c>
     </row>
     <row r="539" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A539" s="5">
-        <v>315824565</v>
+        <v>319039822</v>
       </c>
       <c r="B539" s="11" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="C539" s="7">
         <v>16</v>
@@ -6305,67 +6305,78 @@
     </row>
     <row r="540" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A540" s="5">
-        <v>315824565</v>
+        <v>319039822</v>
       </c>
       <c r="B540" s="11" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="C540" s="7">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="541" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A541" s="5">
-        <v>315824565</v>
+        <v>319039822</v>
       </c>
       <c r="B541" s="11" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="C541" s="7">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="542" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A542" s="5">
-        <v>315824565</v>
+        <v>319039822</v>
       </c>
       <c r="B542" s="11" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="C542" s="7">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="543" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A543" s="8"/>
-      <c r="B543" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="C543" s="10">
-        <f>SUM(C536:C542)</f>
-        <v>95</v>
-      </c>
-    </row>
-    <row r="544" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A544" s="12"/>
-      <c r="B544" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="C544" s="14">
-        <f>AVERAGE(C543,C535,C527,C519)</f>
-        <v>89</v>
-      </c>
-    </row>
-    <row r="545" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="543" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A543" s="5">
+        <v>319039822</v>
+      </c>
+      <c r="B543" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C543" s="7">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="544" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A544" s="5">
+        <v>319039822</v>
+      </c>
+      <c r="B544" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C544" s="7">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="545" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A545" s="8"/>
+      <c r="B545" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="C545" s="10">
+        <f>SUM(C538:C544)</f>
+        <v>92</v>
+      </c>
+    </row>
     <row r="546" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A546" s="2">
         <v>319039822</v>
       </c>
       <c r="B546" s="3" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="C546" s="4">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="547" spans="1:3" x14ac:dyDescent="0.3">
@@ -6373,10 +6384,10 @@
         <v>319039822</v>
       </c>
       <c r="B547" s="11" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="C547" s="7">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="548" spans="1:3" x14ac:dyDescent="0.3">
@@ -6384,7 +6395,7 @@
         <v>319039822</v>
       </c>
       <c r="B548" s="11" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="C548" s="7">
         <v>14</v>
@@ -6395,7 +6406,7 @@
         <v>319039822</v>
       </c>
       <c r="B549" s="11" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="C549" s="7">
         <v>14</v>
@@ -6406,10 +6417,10 @@
         <v>319039822</v>
       </c>
       <c r="B550" s="11" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="C550" s="7">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="551" spans="1:3" x14ac:dyDescent="0.3">
@@ -6417,7 +6428,7 @@
         <v>319039822</v>
       </c>
       <c r="B551" s="11" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="C551" s="7">
         <v>11</v>
@@ -6428,7 +6439,7 @@
         <v>319039822</v>
       </c>
       <c r="B552" s="11" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="C552" s="7">
         <v>11</v>
@@ -6441,18 +6452,18 @@
       </c>
       <c r="C553" s="10">
         <f>SUM(C546:C552)</f>
-        <v>92</v>
+        <v>85</v>
       </c>
     </row>
     <row r="554" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A554" s="2">
         <v>319039822</v>
       </c>
-      <c r="B554" s="3" t="s">
-        <v>24</v>
+      <c r="B554" s="11" t="s">
+        <v>21</v>
       </c>
       <c r="C554" s="4">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="555" spans="1:3" x14ac:dyDescent="0.3">
@@ -6460,10 +6471,10 @@
         <v>319039822</v>
       </c>
       <c r="B555" s="11" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C555" s="7">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="556" spans="1:3" x14ac:dyDescent="0.3">
@@ -6471,10 +6482,10 @@
         <v>319039822</v>
       </c>
       <c r="B556" s="11" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C556" s="7">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="557" spans="1:3" x14ac:dyDescent="0.3">
@@ -6482,10 +6493,10 @@
         <v>319039822</v>
       </c>
       <c r="B557" s="11" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C557" s="7">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="558" spans="1:3" x14ac:dyDescent="0.3">
@@ -6493,10 +6504,10 @@
         <v>319039822</v>
       </c>
       <c r="B558" s="11" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C558" s="7">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="559" spans="1:3" x14ac:dyDescent="0.3">
@@ -6504,7 +6515,7 @@
         <v>319039822</v>
       </c>
       <c r="B559" s="11" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C559" s="7">
         <v>11</v>
@@ -6515,10 +6526,10 @@
         <v>319039822</v>
       </c>
       <c r="B560" s="11" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C560" s="7">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="561" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -6528,15 +6539,15 @@
       </c>
       <c r="C561" s="10">
         <f>SUM(C554:C560)</f>
-        <v>85</v>
+        <v>97</v>
       </c>
     </row>
     <row r="562" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A562" s="2">
         <v>319039822</v>
       </c>
-      <c r="B562" s="11" t="s">
-        <v>22</v>
+      <c r="B562" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="C562" s="4">
         <v>14</v>
@@ -6547,7 +6558,7 @@
         <v>319039822</v>
       </c>
       <c r="B563" s="11" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C563" s="7">
         <v>16</v>
@@ -6558,10 +6569,10 @@
         <v>319039822</v>
       </c>
       <c r="B564" s="11" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C564" s="7">
-        <v>16</v>
+        <v>11</v>
       </c>
     </row>
     <row r="565" spans="1:3" x14ac:dyDescent="0.3">
@@ -6569,10 +6580,10 @@
         <v>319039822</v>
       </c>
       <c r="B565" s="11" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C565" s="7">
-        <v>16</v>
+        <v>11</v>
       </c>
     </row>
     <row r="566" spans="1:3" x14ac:dyDescent="0.3">
@@ -6580,10 +6591,10 @@
         <v>319039822</v>
       </c>
       <c r="B566" s="11" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C566" s="7">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="567" spans="1:3" x14ac:dyDescent="0.3">
@@ -6591,10 +6602,10 @@
         <v>319039822</v>
       </c>
       <c r="B567" s="11" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C567" s="7">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="568" spans="1:3" x14ac:dyDescent="0.3">
@@ -6602,7 +6613,7 @@
         <v>319039822</v>
       </c>
       <c r="B568" s="11" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C568" s="7">
         <v>12</v>
@@ -6615,116 +6626,116 @@
       </c>
       <c r="C569" s="10">
         <f>SUM(C562:C568)</f>
-        <v>97</v>
-      </c>
-    </row>
-    <row r="570" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A570" s="2">
-        <v>319039822</v>
-      </c>
-      <c r="B570" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C570" s="4">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="571" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A571" s="5">
-        <v>319039822</v>
-      </c>
-      <c r="B571" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="C571" s="7">
-        <v>14</v>
-      </c>
-    </row>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="570" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A570" s="12"/>
+      <c r="B570" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="C570" s="14">
+        <f>AVERAGE(C569,C561,C553,C545)</f>
+        <v>91</v>
+      </c>
+    </row>
+    <row r="571" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="572" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A572" s="5">
-        <v>319039822</v>
-      </c>
-      <c r="B572" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="C572" s="7">
-        <v>11</v>
+      <c r="A572" s="2">
+        <v>312502800</v>
+      </c>
+      <c r="B572" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C572" s="4">
+        <v>14</v>
       </c>
     </row>
     <row r="573" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A573" s="5">
-        <v>319039822</v>
+        <v>312502800</v>
       </c>
       <c r="B573" s="11" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="C573" s="7">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="574" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A574" s="5">
-        <v>319039822</v>
+        <v>312502800</v>
       </c>
       <c r="B574" s="11" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="C574" s="7">
-        <v>5</v>
+        <v>14</v>
       </c>
     </row>
     <row r="575" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A575" s="5">
-        <v>319039822</v>
+        <v>312502800</v>
       </c>
       <c r="B575" s="11" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="C575" s="7">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="576" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A576" s="5">
-        <v>319039822</v>
+        <v>312502800</v>
       </c>
       <c r="B576" s="11" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="C576" s="7">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="577" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A577" s="8"/>
-      <c r="B577" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="C577" s="10">
-        <f>SUM(C570:C576)</f>
-        <v>77</v>
-      </c>
-    </row>
-    <row r="578" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A578" s="12"/>
-      <c r="B578" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="C578" s="14">
-        <f>AVERAGE(C577,C569,C561,C553)</f>
-        <v>87.75</v>
-      </c>
-    </row>
-    <row r="579" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="577" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A577" s="5">
+        <v>312502800</v>
+      </c>
+      <c r="B577" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C577" s="7">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="578" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A578" s="5">
+        <v>312502800</v>
+      </c>
+      <c r="B578" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C578" s="7">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="579" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A579" s="8"/>
+      <c r="B579" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="C579" s="10">
+        <f>SUM(C572:C578)</f>
+        <v>96</v>
+      </c>
+    </row>
     <row r="580" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A580" s="2">
         <v>312502800</v>
       </c>
       <c r="B580" s="3" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="C580" s="4">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="581" spans="1:3" x14ac:dyDescent="0.3">
@@ -6732,10 +6743,10 @@
         <v>312502800</v>
       </c>
       <c r="B581" s="11" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="C581" s="7">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="582" spans="1:3" x14ac:dyDescent="0.3">
@@ -6743,7 +6754,7 @@
         <v>312502800</v>
       </c>
       <c r="B582" s="11" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="C582" s="7">
         <v>14</v>
@@ -6754,10 +6765,10 @@
         <v>312502800</v>
       </c>
       <c r="B583" s="11" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="C583" s="7">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="584" spans="1:3" x14ac:dyDescent="0.3">
@@ -6765,10 +6776,10 @@
         <v>312502800</v>
       </c>
       <c r="B584" s="11" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="C584" s="7">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="585" spans="1:3" x14ac:dyDescent="0.3">
@@ -6776,10 +6787,10 @@
         <v>312502800</v>
       </c>
       <c r="B585" s="11" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="C585" s="7">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="586" spans="1:3" x14ac:dyDescent="0.3">
@@ -6787,7 +6798,7 @@
         <v>312502800</v>
       </c>
       <c r="B586" s="11" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="C586" s="7">
         <v>11</v>
@@ -6800,18 +6811,18 @@
       </c>
       <c r="C587" s="10">
         <f>SUM(C580:C586)</f>
-        <v>96</v>
+        <v>89</v>
       </c>
     </row>
     <row r="588" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A588" s="2">
         <v>312502800</v>
       </c>
-      <c r="B588" s="3" t="s">
-        <v>24</v>
+      <c r="B588" s="11" t="s">
+        <v>22</v>
       </c>
       <c r="C588" s="4">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="589" spans="1:3" x14ac:dyDescent="0.3">
@@ -6819,10 +6830,10 @@
         <v>312502800</v>
       </c>
       <c r="B589" s="11" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C589" s="7">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="590" spans="1:3" x14ac:dyDescent="0.3">
@@ -6830,7 +6841,7 @@
         <v>312502800</v>
       </c>
       <c r="B590" s="11" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C590" s="7">
         <v>14</v>
@@ -6841,10 +6852,10 @@
         <v>312502800</v>
       </c>
       <c r="B591" s="11" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C591" s="7">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="592" spans="1:3" x14ac:dyDescent="0.3">
@@ -6852,10 +6863,10 @@
         <v>312502800</v>
       </c>
       <c r="B592" s="11" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C592" s="7">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="593" spans="1:3" x14ac:dyDescent="0.3">
@@ -6863,7 +6874,7 @@
         <v>312502800</v>
       </c>
       <c r="B593" s="11" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C593" s="7">
         <v>12</v>
@@ -6874,7 +6885,7 @@
         <v>312502800</v>
       </c>
       <c r="B594" s="11" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C594" s="7">
         <v>11</v>
@@ -6887,15 +6898,15 @@
       </c>
       <c r="C595" s="10">
         <f>SUM(C588:C594)</f>
-        <v>89</v>
+        <v>97</v>
       </c>
     </row>
     <row r="596" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A596" s="2">
         <v>312502800</v>
       </c>
-      <c r="B596" s="11" t="s">
-        <v>23</v>
+      <c r="B596" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="C596" s="4">
         <v>14</v>
@@ -6906,7 +6917,7 @@
         <v>312502800</v>
       </c>
       <c r="B597" s="11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C597" s="7">
         <v>16</v>
@@ -6917,10 +6928,10 @@
         <v>312502800</v>
       </c>
       <c r="B598" s="11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C598" s="7">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="599" spans="1:3" x14ac:dyDescent="0.3">
@@ -6928,10 +6939,10 @@
         <v>312502800</v>
       </c>
       <c r="B599" s="11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C599" s="7">
-        <v>16</v>
+        <v>11</v>
       </c>
     </row>
     <row r="600" spans="1:3" x14ac:dyDescent="0.3">
@@ -6939,7 +6950,7 @@
         <v>312502800</v>
       </c>
       <c r="B600" s="11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C600" s="7">
         <v>14</v>
@@ -6950,7 +6961,7 @@
         <v>312502800</v>
       </c>
       <c r="B601" s="11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C601" s="7">
         <v>12</v>
@@ -6961,10 +6972,10 @@
         <v>312502800</v>
       </c>
       <c r="B602" s="11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C602" s="7">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="603" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -6974,59 +6985,48 @@
       </c>
       <c r="C603" s="10">
         <f>SUM(C596:C602)</f>
-        <v>97</v>
-      </c>
-    </row>
-    <row r="604" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A604" s="2">
-        <v>312502800</v>
-      </c>
-      <c r="B604" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C604" s="4">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="605" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A605" s="5">
-        <v>312502800</v>
-      </c>
-      <c r="B605" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="C605" s="7">
-        <v>16</v>
-      </c>
-    </row>
+        <v>91</v>
+      </c>
+    </row>
+    <row r="604" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A604" s="12"/>
+      <c r="B604" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="C604" s="14">
+        <f>AVERAGE(C603,C595,C587,C579)</f>
+        <v>93.25</v>
+      </c>
+    </row>
+    <row r="605" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="606" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A606" s="5">
-        <v>312502800</v>
-      </c>
-      <c r="B606" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="C606" s="7">
-        <v>16</v>
+      <c r="A606" s="2">
+        <v>209418813</v>
+      </c>
+      <c r="B606" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C606" s="4">
+        <v>14</v>
       </c>
     </row>
     <row r="607" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A607" s="5">
-        <v>312502800</v>
+        <v>209418813</v>
       </c>
       <c r="B607" s="11" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="C607" s="7">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="608" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A608" s="5">
-        <v>312502800</v>
+        <v>209418813</v>
       </c>
       <c r="B608" s="11" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="C608" s="7">
         <v>14</v>
@@ -7034,56 +7034,67 @@
     </row>
     <row r="609" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A609" s="5">
-        <v>312502800</v>
+        <v>209418813</v>
       </c>
       <c r="B609" s="11" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="C609" s="7">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="610" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A610" s="5">
-        <v>312502800</v>
+        <v>209418813</v>
       </c>
       <c r="B610" s="11" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="C610" s="7">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="611" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A611" s="8"/>
-      <c r="B611" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="C611" s="10">
-        <f>SUM(C604:C610)</f>
-        <v>91</v>
-      </c>
-    </row>
-    <row r="612" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A612" s="12"/>
-      <c r="B612" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="C612" s="14">
-        <f>AVERAGE(C611,C603,C595,C587)</f>
-        <v>93.25</v>
-      </c>
-    </row>
-    <row r="613" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="611" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A611" s="5">
+        <v>209418813</v>
+      </c>
+      <c r="B611" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C611" s="7">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="612" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A612" s="5">
+        <v>209418813</v>
+      </c>
+      <c r="B612" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C612" s="7">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="613" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A613" s="8"/>
+      <c r="B613" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="C613" s="10">
+        <f>SUM(C606:C612)</f>
+        <v>92</v>
+      </c>
+    </row>
     <row r="614" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A614" s="2">
         <v>209418813</v>
       </c>
       <c r="B614" s="3" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="C614" s="4">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="615" spans="1:3" x14ac:dyDescent="0.3">
@@ -7091,7 +7102,7 @@
         <v>209418813</v>
       </c>
       <c r="B615" s="11" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="C615" s="7">
         <v>14</v>
@@ -7102,7 +7113,7 @@
         <v>209418813</v>
       </c>
       <c r="B616" s="11" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="C616" s="7">
         <v>14</v>
@@ -7113,7 +7124,7 @@
         <v>209418813</v>
       </c>
       <c r="B617" s="11" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="C617" s="7">
         <v>14</v>
@@ -7124,7 +7135,7 @@
         <v>209418813</v>
       </c>
       <c r="B618" s="11" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="C618" s="7">
         <v>12</v>
@@ -7135,10 +7146,10 @@
         <v>209418813</v>
       </c>
       <c r="B619" s="11" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="C619" s="7">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="620" spans="1:3" x14ac:dyDescent="0.3">
@@ -7146,10 +7157,10 @@
         <v>209418813</v>
       </c>
       <c r="B620" s="11" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="C620" s="7">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="621" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -7159,18 +7170,18 @@
       </c>
       <c r="C621" s="10">
         <f>SUM(C614:C620)</f>
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
     <row r="622" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A622" s="2">
         <v>209418813</v>
       </c>
-      <c r="B622" s="3" t="s">
-        <v>24</v>
+      <c r="B622" s="11" t="s">
+        <v>13</v>
       </c>
       <c r="C622" s="4">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="623" spans="1:3" x14ac:dyDescent="0.3">
@@ -7178,10 +7189,10 @@
         <v>209418813</v>
       </c>
       <c r="B623" s="11" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="C623" s="7">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="624" spans="1:3" x14ac:dyDescent="0.3">
@@ -7189,10 +7200,10 @@
         <v>209418813</v>
       </c>
       <c r="B624" s="11" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="C624" s="7">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="625" spans="1:3" x14ac:dyDescent="0.3">
@@ -7200,10 +7211,10 @@
         <v>209418813</v>
       </c>
       <c r="B625" s="11" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="C625" s="7">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="626" spans="1:3" x14ac:dyDescent="0.3">
@@ -7211,10 +7222,10 @@
         <v>209418813</v>
       </c>
       <c r="B626" s="11" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="C626" s="7">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="627" spans="1:3" x14ac:dyDescent="0.3">
@@ -7222,10 +7233,10 @@
         <v>209418813</v>
       </c>
       <c r="B627" s="11" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="C627" s="7">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="628" spans="1:3" x14ac:dyDescent="0.3">
@@ -7233,10 +7244,10 @@
         <v>209418813</v>
       </c>
       <c r="B628" s="11" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="C628" s="7">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="629" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -7246,15 +7257,15 @@
       </c>
       <c r="C629" s="10">
         <f>SUM(C622:C628)</f>
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="630" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A630" s="2">
         <v>209418813</v>
       </c>
-      <c r="B630" s="11" t="s">
-        <v>14</v>
+      <c r="B630" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="C630" s="4">
         <v>14</v>
@@ -7265,10 +7276,10 @@
         <v>209418813</v>
       </c>
       <c r="B631" s="11" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="C631" s="7">
-        <v>16</v>
+        <v>11</v>
       </c>
     </row>
     <row r="632" spans="1:3" x14ac:dyDescent="0.3">
@@ -7276,7 +7287,7 @@
         <v>209418813</v>
       </c>
       <c r="B632" s="11" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="C632" s="7">
         <v>11</v>
@@ -7287,7 +7298,7 @@
         <v>209418813</v>
       </c>
       <c r="B633" s="11" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="C633" s="7">
         <v>16</v>
@@ -7298,10 +7309,10 @@
         <v>209418813</v>
       </c>
       <c r="B634" s="11" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="C634" s="7">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="635" spans="1:3" x14ac:dyDescent="0.3">
@@ -7309,7 +7320,7 @@
         <v>209418813</v>
       </c>
       <c r="B635" s="11" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="C635" s="7">
         <v>12</v>
@@ -7320,7 +7331,7 @@
         <v>209418813</v>
       </c>
       <c r="B636" s="11" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="C636" s="7">
         <v>12</v>
@@ -7333,48 +7344,37 @@
       </c>
       <c r="C637" s="10">
         <f>SUM(C630:C636)</f>
-        <v>90</v>
-      </c>
-    </row>
-    <row r="638" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A638" s="2">
-        <v>209418813</v>
-      </c>
-      <c r="B638" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C638" s="4">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="639" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A639" s="5">
-        <v>209418813</v>
-      </c>
-      <c r="B639" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="C639" s="7">
-        <v>14</v>
-      </c>
-    </row>
+        <v>88</v>
+      </c>
+    </row>
+    <row r="638" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A638" s="12"/>
+      <c r="B638" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="C638" s="14">
+        <f>AVERAGE(C637,C629,C621,C613)</f>
+        <v>89.5</v>
+      </c>
+    </row>
+    <row r="639" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="640" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A640" s="5">
-        <v>209418813</v>
-      </c>
-      <c r="B640" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="C640" s="7">
-        <v>5</v>
+      <c r="A640" s="2">
+        <v>208203521</v>
+      </c>
+      <c r="B640" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C640" s="4">
+        <v>14</v>
       </c>
     </row>
     <row r="641" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A641" s="5">
-        <v>209418813</v>
+        <v>208203521</v>
       </c>
       <c r="B641" s="11" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="C641" s="7">
         <v>16</v>
@@ -7382,67 +7382,78 @@
     </row>
     <row r="642" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A642" s="5">
-        <v>209418813</v>
+        <v>208203521</v>
       </c>
       <c r="B642" s="11" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="C642" s="7">
-        <v>5</v>
+        <v>14</v>
       </c>
     </row>
     <row r="643" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A643" s="5">
-        <v>209418813</v>
+        <v>208203521</v>
       </c>
       <c r="B643" s="11" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="C643" s="7">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="644" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A644" s="5">
-        <v>209418813</v>
+        <v>208203521</v>
       </c>
       <c r="B644" s="11" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="C644" s="7">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="645" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A645" s="8"/>
-      <c r="B645" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="C645" s="10">
-        <f>SUM(C638:C644)</f>
-        <v>78</v>
-      </c>
-    </row>
-    <row r="646" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A646" s="12"/>
-      <c r="B646" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="C646" s="14">
-        <f>AVERAGE(C645,C637,C629,C621)</f>
-        <v>87</v>
-      </c>
-    </row>
-    <row r="647" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="645" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A645" s="5">
+        <v>208203521</v>
+      </c>
+      <c r="B645" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C645" s="7">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="646" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A646" s="5">
+        <v>208203521</v>
+      </c>
+      <c r="B646" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C646" s="7">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="647" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A647" s="8"/>
+      <c r="B647" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="C647" s="10">
+        <f>SUM(C640:C646)</f>
+        <v>94</v>
+      </c>
+    </row>
     <row r="648" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A648" s="2">
         <v>208203521</v>
       </c>
       <c r="B648" s="3" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C648" s="4">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="649" spans="1:3" x14ac:dyDescent="0.3">
@@ -7450,10 +7461,10 @@
         <v>208203521</v>
       </c>
       <c r="B649" s="11" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C649" s="7">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="650" spans="1:3" x14ac:dyDescent="0.3">
@@ -7461,10 +7472,10 @@
         <v>208203521</v>
       </c>
       <c r="B650" s="11" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C650" s="7">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="651" spans="1:3" x14ac:dyDescent="0.3">
@@ -7472,10 +7483,10 @@
         <v>208203521</v>
       </c>
       <c r="B651" s="11" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C651" s="7">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="652" spans="1:3" x14ac:dyDescent="0.3">
@@ -7483,10 +7494,10 @@
         <v>208203521</v>
       </c>
       <c r="B652" s="11" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C652" s="7">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="653" spans="1:3" x14ac:dyDescent="0.3">
@@ -7494,10 +7505,10 @@
         <v>208203521</v>
       </c>
       <c r="B653" s="11" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C653" s="7">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="654" spans="1:3" x14ac:dyDescent="0.3">
@@ -7505,7 +7516,7 @@
         <v>208203521</v>
       </c>
       <c r="B654" s="11" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C654" s="7">
         <v>11</v>
@@ -7518,18 +7529,18 @@
       </c>
       <c r="C655" s="10">
         <f>SUM(C648:C654)</f>
-        <v>94</v>
+        <v>76</v>
       </c>
     </row>
     <row r="656" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A656" s="2">
         <v>208203521</v>
       </c>
-      <c r="B656" s="3" t="s">
-        <v>24</v>
+      <c r="B656" s="11" t="s">
+        <v>13</v>
       </c>
       <c r="C656" s="4">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="657" spans="1:3" x14ac:dyDescent="0.3">
@@ -7537,10 +7548,10 @@
         <v>208203521</v>
       </c>
       <c r="B657" s="11" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="C657" s="7">
-        <v>14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="658" spans="1:3" x14ac:dyDescent="0.3">
@@ -7548,10 +7559,10 @@
         <v>208203521</v>
       </c>
       <c r="B658" s="11" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="C658" s="7">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="659" spans="1:3" x14ac:dyDescent="0.3">
@@ -7559,10 +7570,10 @@
         <v>208203521</v>
       </c>
       <c r="B659" s="11" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="C659" s="7">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="660" spans="1:3" x14ac:dyDescent="0.3">
@@ -7570,7 +7581,7 @@
         <v>208203521</v>
       </c>
       <c r="B660" s="11" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="C660" s="7">
         <v>9</v>
@@ -7581,10 +7592,10 @@
         <v>208203521</v>
       </c>
       <c r="B661" s="11" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="C661" s="7">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="662" spans="1:3" x14ac:dyDescent="0.3">
@@ -7592,10 +7603,10 @@
         <v>208203521</v>
       </c>
       <c r="B662" s="11" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="C662" s="7">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="663" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -7605,18 +7616,18 @@
       </c>
       <c r="C663" s="10">
         <f>SUM(C656:C662)</f>
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="664" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A664" s="2">
         <v>208203521</v>
       </c>
-      <c r="B664" s="11" t="s">
-        <v>14</v>
+      <c r="B664" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="C664" s="4">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="665" spans="1:3" x14ac:dyDescent="0.3">
@@ -7624,10 +7635,10 @@
         <v>208203521</v>
       </c>
       <c r="B665" s="11" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="C665" s="7">
-        <v>0</v>
+        <v>16</v>
       </c>
     </row>
     <row r="666" spans="1:3" x14ac:dyDescent="0.3">
@@ -7635,10 +7646,10 @@
         <v>208203521</v>
       </c>
       <c r="B666" s="11" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="C666" s="7">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="667" spans="1:3" x14ac:dyDescent="0.3">
@@ -7646,10 +7657,10 @@
         <v>208203521</v>
       </c>
       <c r="B667" s="11" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="C667" s="7">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="668" spans="1:3" x14ac:dyDescent="0.3">
@@ -7657,7 +7668,7 @@
         <v>208203521</v>
       </c>
       <c r="B668" s="11" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="C668" s="7">
         <v>9</v>
@@ -7668,10 +7679,10 @@
         <v>208203521</v>
       </c>
       <c r="B669" s="11" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="C669" s="7">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="670" spans="1:3" x14ac:dyDescent="0.3">
@@ -7679,7 +7690,7 @@
         <v>208203521</v>
       </c>
       <c r="B670" s="11" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="C670" s="7">
         <v>12</v>
@@ -7692,116 +7703,116 @@
       </c>
       <c r="C671" s="10">
         <f>SUM(C664:C670)</f>
-        <v>74</v>
-      </c>
-    </row>
-    <row r="672" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A672" s="2">
-        <v>208203521</v>
-      </c>
-      <c r="B672" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C672" s="4">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="673" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A673" s="5">
-        <v>208203521</v>
-      </c>
-      <c r="B673" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="C673" s="7">
-        <v>0</v>
-      </c>
-    </row>
+        <v>83</v>
+      </c>
+    </row>
+    <row r="672" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A672" s="12"/>
+      <c r="B672" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="C672" s="14">
+        <f>AVERAGE(C671,C663,C655,C647)</f>
+        <v>81.75</v>
+      </c>
+    </row>
+    <row r="673" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="674" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A674" s="5">
-        <v>208203521</v>
-      </c>
-      <c r="B674" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="C674" s="7">
-        <v>11</v>
+      <c r="A674" s="2">
+        <v>315490136</v>
+      </c>
+      <c r="B674" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C674" s="4">
+        <v>12</v>
       </c>
     </row>
     <row r="675" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A675" s="5">
-        <v>208203521</v>
+        <v>315490136</v>
       </c>
       <c r="B675" s="11" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="C675" s="7">
-        <v>11</v>
+        <v>16</v>
       </c>
     </row>
     <row r="676" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A676" s="5">
-        <v>208203521</v>
+        <v>315490136</v>
       </c>
       <c r="B676" s="11" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="C676" s="7">
-        <v>5</v>
+        <v>14</v>
       </c>
     </row>
     <row r="677" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A677" s="5">
-        <v>208203521</v>
+        <v>315490136</v>
       </c>
       <c r="B677" s="11" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="C677" s="7">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="678" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A678" s="5">
-        <v>208203521</v>
+        <v>315490136</v>
       </c>
       <c r="B678" s="11" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="C678" s="7">
         <v>12</v>
       </c>
     </row>
-    <row r="679" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A679" s="8"/>
-      <c r="B679" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="C679" s="10">
-        <f>SUM(C672:C678)</f>
-        <v>63</v>
-      </c>
-    </row>
-    <row r="680" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A680" s="12"/>
-      <c r="B680" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="C680" s="14">
-        <f>AVERAGE(C679,C671,C663,C655)</f>
-        <v>76.75</v>
-      </c>
-    </row>
-    <row r="681" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="679" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A679" s="5">
+        <v>315490136</v>
+      </c>
+      <c r="B679" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C679" s="7">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="680" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A680" s="5">
+        <v>315490136</v>
+      </c>
+      <c r="B680" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C680" s="7">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="681" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A681" s="8"/>
+      <c r="B681" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="C681" s="10">
+        <f>SUM(C674:C680)</f>
+        <v>88</v>
+      </c>
+    </row>
     <row r="682" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A682" s="2">
         <v>315490136</v>
       </c>
       <c r="B682" s="3" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C682" s="4">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="683" spans="1:3" x14ac:dyDescent="0.3">
@@ -7809,10 +7820,10 @@
         <v>315490136</v>
       </c>
       <c r="B683" s="11" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C683" s="7">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="684" spans="1:3" x14ac:dyDescent="0.3">
@@ -7820,7 +7831,7 @@
         <v>315490136</v>
       </c>
       <c r="B684" s="11" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C684" s="7">
         <v>14</v>
@@ -7831,10 +7842,10 @@
         <v>315490136</v>
       </c>
       <c r="B685" s="11" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C685" s="7">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="686" spans="1:3" x14ac:dyDescent="0.3">
@@ -7842,10 +7853,10 @@
         <v>315490136</v>
       </c>
       <c r="B686" s="11" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C686" s="7">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="687" spans="1:3" x14ac:dyDescent="0.3">
@@ -7853,10 +7864,10 @@
         <v>315490136</v>
       </c>
       <c r="B687" s="11" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C687" s="7">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="688" spans="1:3" x14ac:dyDescent="0.3">
@@ -7864,10 +7875,10 @@
         <v>315490136</v>
       </c>
       <c r="B688" s="11" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C688" s="7">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="689" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -7877,18 +7888,18 @@
       </c>
       <c r="C689" s="10">
         <f>SUM(C682:C688)</f>
-        <v>88</v>
+        <v>79</v>
       </c>
     </row>
     <row r="690" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A690" s="2">
         <v>315490136</v>
       </c>
-      <c r="B690" s="3" t="s">
-        <v>24</v>
+      <c r="B690" s="11" t="s">
+        <v>13</v>
       </c>
       <c r="C690" s="4">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="691" spans="1:3" x14ac:dyDescent="0.3">
@@ -7896,10 +7907,10 @@
         <v>315490136</v>
       </c>
       <c r="B691" s="11" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="C691" s="7">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="692" spans="1:3" x14ac:dyDescent="0.3">
@@ -7907,10 +7918,10 @@
         <v>315490136</v>
       </c>
       <c r="B692" s="11" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="C692" s="7">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="693" spans="1:3" x14ac:dyDescent="0.3">
@@ -7918,10 +7929,10 @@
         <v>315490136</v>
       </c>
       <c r="B693" s="11" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="C693" s="7">
-        <v>11</v>
+        <v>16</v>
       </c>
     </row>
     <row r="694" spans="1:3" x14ac:dyDescent="0.3">
@@ -7929,10 +7940,10 @@
         <v>315490136</v>
       </c>
       <c r="B694" s="11" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="C694" s="7">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="695" spans="1:3" x14ac:dyDescent="0.3">
@@ -7940,10 +7951,10 @@
         <v>315490136</v>
       </c>
       <c r="B695" s="11" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="C695" s="7">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="696" spans="1:3" x14ac:dyDescent="0.3">
@@ -7951,7 +7962,7 @@
         <v>315490136</v>
       </c>
       <c r="B696" s="11" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="C696" s="7">
         <v>11</v>
@@ -7964,15 +7975,15 @@
       </c>
       <c r="C697" s="10">
         <f>SUM(C690:C696)</f>
-        <v>79</v>
+        <v>91</v>
       </c>
     </row>
     <row r="698" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A698" s="2">
         <v>315490136</v>
       </c>
-      <c r="B698" s="11" t="s">
-        <v>14</v>
+      <c r="B698" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="C698" s="4">
         <v>12</v>
@@ -7983,7 +7994,7 @@
         <v>315490136</v>
       </c>
       <c r="B699" s="11" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="C699" s="7">
         <v>16</v>
@@ -7994,7 +8005,7 @@
         <v>315490136</v>
       </c>
       <c r="B700" s="11" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="C700" s="7">
         <v>16</v>
@@ -8005,7 +8016,7 @@
         <v>315490136</v>
       </c>
       <c r="B701" s="11" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="C701" s="7">
         <v>16</v>
@@ -8016,7 +8027,7 @@
         <v>315490136</v>
       </c>
       <c r="B702" s="11" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="C702" s="7">
         <v>12</v>
@@ -8027,10 +8038,10 @@
         <v>315490136</v>
       </c>
       <c r="B703" s="11" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="C703" s="7">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="704" spans="1:3" x14ac:dyDescent="0.3">
@@ -8038,10 +8049,10 @@
         <v>315490136</v>
       </c>
       <c r="B704" s="11" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="C704" s="7">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="705" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -8051,48 +8062,37 @@
       </c>
       <c r="C705" s="10">
         <f>SUM(C698:C704)</f>
-        <v>91</v>
-      </c>
-    </row>
-    <row r="706" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A706" s="2">
-        <v>315490136</v>
-      </c>
-      <c r="B706" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C706" s="4">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="707" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A707" s="5">
-        <v>315490136</v>
-      </c>
-      <c r="B707" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="C707" s="7">
-        <v>16</v>
-      </c>
-    </row>
+        <v>92</v>
+      </c>
+    </row>
+    <row r="706" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A706" s="12"/>
+      <c r="B706" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="C706" s="14">
+        <f>AVERAGE(C705,C697,C689,C681)</f>
+        <v>87.5</v>
+      </c>
+    </row>
+    <row r="707" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="708" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A708" s="5">
-        <v>315490136</v>
-      </c>
-      <c r="B708" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="C708" s="7">
-        <v>16</v>
+      <c r="A708" s="2">
+        <v>208244913</v>
+      </c>
+      <c r="B708" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C708" s="4">
+        <v>12</v>
       </c>
     </row>
     <row r="709" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A709" s="5">
-        <v>315490136</v>
+        <v>208244913</v>
       </c>
       <c r="B709" s="11" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="C709" s="7">
         <v>14</v>
@@ -8100,67 +8100,78 @@
     </row>
     <row r="710" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A710" s="5">
-        <v>315490136</v>
+        <v>208244913</v>
       </c>
       <c r="B710" s="11" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="C710" s="7">
-        <v>5</v>
+        <v>14</v>
       </c>
     </row>
     <row r="711" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A711" s="5">
-        <v>315490136</v>
+        <v>208244913</v>
       </c>
       <c r="B711" s="11" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="C711" s="7">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="712" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A712" s="5">
-        <v>315490136</v>
+        <v>208244913</v>
       </c>
       <c r="B712" s="11" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="C712" s="7">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="713" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A713" s="8"/>
-      <c r="B713" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="C713" s="10">
-        <f>SUM(C706:C712)</f>
-        <v>75</v>
-      </c>
-    </row>
-    <row r="714" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A714" s="12"/>
-      <c r="B714" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="C714" s="14">
-        <f>AVERAGE(C713,C705,C697,C689)</f>
-        <v>83.25</v>
-      </c>
-    </row>
-    <row r="715" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="713" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A713" s="5">
+        <v>208244913</v>
+      </c>
+      <c r="B713" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C713" s="7">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="714" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A714" s="5">
+        <v>208244913</v>
+      </c>
+      <c r="B714" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C714" s="7">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="715" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A715" s="8"/>
+      <c r="B715" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="C715" s="10">
+        <f>SUM(C708:C714)</f>
+        <v>90</v>
+      </c>
+    </row>
     <row r="716" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A716" s="2">
         <v>208244913</v>
       </c>
-      <c r="B716" s="3" t="s">
-        <v>21</v>
+      <c r="B716" s="11" t="s">
+        <v>13</v>
       </c>
       <c r="C716" s="4">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="717" spans="1:3" x14ac:dyDescent="0.3">
@@ -8168,10 +8179,10 @@
         <v>208244913</v>
       </c>
       <c r="B717" s="11" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="C717" s="7">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="718" spans="1:3" x14ac:dyDescent="0.3">
@@ -8179,10 +8190,10 @@
         <v>208244913</v>
       </c>
       <c r="B718" s="11" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="C718" s="7">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="719" spans="1:3" x14ac:dyDescent="0.3">
@@ -8190,10 +8201,10 @@
         <v>208244913</v>
       </c>
       <c r="B719" s="11" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="C719" s="7">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="720" spans="1:3" x14ac:dyDescent="0.3">
@@ -8201,10 +8212,10 @@
         <v>208244913</v>
       </c>
       <c r="B720" s="11" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="C720" s="7">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="721" spans="1:3" x14ac:dyDescent="0.3">
@@ -8212,7 +8223,7 @@
         <v>208244913</v>
       </c>
       <c r="B721" s="11" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="C721" s="7">
         <v>12</v>
@@ -8223,7 +8234,7 @@
         <v>208244913</v>
       </c>
       <c r="B722" s="11" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="C722" s="7">
         <v>12</v>
@@ -8236,15 +8247,15 @@
       </c>
       <c r="C723" s="10">
         <f>SUM(C716:C722)</f>
-        <v>90</v>
+        <v>100</v>
       </c>
     </row>
     <row r="724" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A724" s="2">
         <v>208244913</v>
       </c>
-      <c r="B724" s="11" t="s">
-        <v>14</v>
+      <c r="B724" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="C724" s="4">
         <v>14</v>
@@ -8255,7 +8266,7 @@
         <v>208244913</v>
       </c>
       <c r="B725" s="11" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="C725" s="7">
         <v>16</v>
@@ -8266,7 +8277,7 @@
         <v>208244913</v>
       </c>
       <c r="B726" s="11" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="C726" s="7">
         <v>16</v>
@@ -8277,10 +8288,10 @@
         <v>208244913</v>
       </c>
       <c r="B727" s="11" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="C727" s="7">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="728" spans="1:3" x14ac:dyDescent="0.3">
@@ -8288,10 +8299,10 @@
         <v>208244913</v>
       </c>
       <c r="B728" s="11" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="C728" s="7">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="729" spans="1:3" x14ac:dyDescent="0.3">
@@ -8299,7 +8310,7 @@
         <v>208244913</v>
       </c>
       <c r="B729" s="11" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="C729" s="7">
         <v>12</v>
@@ -8310,7 +8321,7 @@
         <v>208244913</v>
       </c>
       <c r="B730" s="11" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="C730" s="7">
         <v>12</v>
@@ -8323,103 +8334,16 @@
       </c>
       <c r="C731" s="10">
         <f>SUM(C724:C730)</f>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="732" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A732" s="2">
-        <v>208244913</v>
-      </c>
-      <c r="B732" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C732" s="4">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="733" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A733" s="5">
-        <v>208244913</v>
-      </c>
-      <c r="B733" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="C733" s="7">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="734" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A734" s="5">
-        <v>208244913</v>
-      </c>
-      <c r="B734" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="C734" s="7">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="735" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A735" s="5">
-        <v>208244913</v>
-      </c>
-      <c r="B735" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="C735" s="7">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="736" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A736" s="5">
-        <v>208244913</v>
-      </c>
-      <c r="B736" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="C736" s="7">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="737" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A737" s="5">
-        <v>208244913</v>
-      </c>
-      <c r="B737" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="C737" s="7">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="738" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A738" s="5">
-        <v>208244913</v>
-      </c>
-      <c r="B738" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="C738" s="7">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="739" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A739" s="8"/>
-      <c r="B739" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="C739" s="10">
-        <f>SUM(C732:C738)</f>
         <v>96</v>
       </c>
     </row>
-    <row r="740" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A740" s="12"/>
-      <c r="B740" s="13" t="s">
+    <row r="732" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A732" s="12"/>
+      <c r="B732" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="C740" s="14">
-        <f>AVERAGE(C739,C731,C723)</f>
+      <c r="C732" s="14">
+        <f>AVERAGE(C731,C723,C715)</f>
         <v>95.333333333333329</v>
       </c>
     </row>
